--- a/ZIEGLER_NICHOLS_RACEHORSES.xlsx
+++ b/ZIEGLER_NICHOLS_RACEHORSES.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="26680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="24465" windowHeight="14925" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="parsed_pid_constants.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$K$1:$K$129</definedName>
+  </definedNames>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>SP</t>
   </si>
@@ -145,13 +149,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009999"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -161,10 +175,21 @@
       <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6474568854229209E-2"/>
+          <c:y val="2.414981028109638E-2"/>
+          <c:w val="0.91781727166934735"/>
+          <c:h val="0.8767785402666467"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -182,15 +207,75 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pt-BR"/>
+                      <a:t>5.88</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="116"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pt-BR"/>
+                      <a:t>5.88</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>parsed_pid_constants.csv!$A$2:$A$118</c:f>
+              <c:f>parsed_pid_constants.csv!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>5.88</c:v>
                 </c:pt>
@@ -381,165 +466,6 @@
                   <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="116">
                   <c:v>5.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -561,365 +487,228 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="8064A2">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8064A2">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="8064A2">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>parsed_pid_constants.csv!$B$2:$B$118</c:f>
+              <c:f>parsed_pid_constants.csv!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>6.75578</c:v>
+                  <c:v>6.7557799999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.78604</c:v>
+                  <c:v>7.7860399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.46425</c:v>
+                  <c:v>7.4642499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.42106</c:v>
+                  <c:v>7.4210599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.84279</c:v>
+                  <c:v>6.8427899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.49368</c:v>
+                  <c:v>8.4936799999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.5979</c:v>
+                  <c:v>11.597899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10.3932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.96768</c:v>
+                  <c:v>9.9676799999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.3571</c:v>
+                  <c:v>13.357100000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.75799</c:v>
+                  <c:v>9.7579899999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.81427</c:v>
+                  <c:v>9.8142700000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.48154</c:v>
+                  <c:v>9.4815400000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.6098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.39412</c:v>
+                  <c:v>9.3941199999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.69049</c:v>
+                  <c:v>9.6904900000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.13603</c:v>
+                  <c:v>9.1360299999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>12.676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.36467</c:v>
+                  <c:v>9.3646700000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.55808</c:v>
+                  <c:v>9.5580800000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.35759</c:v>
+                  <c:v>9.3575900000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.5393</c:v>
+                  <c:v>13.539300000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.68511</c:v>
+                  <c:v>9.6851099999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.9635</c:v>
+                  <c:v>9.9634999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.70961</c:v>
+                  <c:v>9.7096099999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.2076</c:v>
+                  <c:v>13.207599999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.50461</c:v>
+                  <c:v>9.5046099999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.4978</c:v>
+                  <c:v>9.4977999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.00559</c:v>
+                  <c:v>9.0055899999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12.8019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.82109</c:v>
+                  <c:v>8.8210899999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.77351</c:v>
+                  <c:v>8.7735099999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.75933</c:v>
+                  <c:v>8.7593300000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12.4338</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.93464</c:v>
+                  <c:v>8.9346399999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.33403</c:v>
+                  <c:v>9.3340300000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.95705</c:v>
+                  <c:v>8.9570500000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.4098</c:v>
+                  <c:v>12.409800000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.94941</c:v>
+                  <c:v>8.9494100000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.17543</c:v>
+                  <c:v>9.1754300000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.8051</c:v>
+                  <c:v>8.8050999999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.5682</c:v>
+                  <c:v>13.568199999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.71641</c:v>
+                  <c:v>9.7164099999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.91388</c:v>
+                  <c:v>9.9138800000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.67691</c:v>
+                  <c:v>9.6769099999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.5972</c:v>
+                  <c:v>13.597200000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.90626</c:v>
+                  <c:v>9.9062599999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.1832</c:v>
+                  <c:v>10.183199999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.1123</c:v>
+                  <c:v>10.112299999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>13.8004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.843920000000001</c:v>
+                  <c:v>9.8439200000000007</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10.3139</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.0324</c:v>
+                  <c:v>10.032400000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.8464</c:v>
+                  <c:v>13.846399999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.89573</c:v>
+                  <c:v>9.8957300000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.4601</c:v>
+                  <c:v>10.460100000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.0774</c:v>
+                  <c:v>10.077400000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.1588</c:v>
+                  <c:v>14.158799999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>10.2431</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.7473</c:v>
+                  <c:v>10.747299999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.1543</c:v>
+                  <c:v>10.154299999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.854</c:v>
+                  <c:v>13.853999999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.85122</c:v>
+                  <c:v>9.8512199999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.1626</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.7319</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.1108</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.4521</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.2849</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14.0554</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.2101</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.4671</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10.0231</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13.5871</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.37146</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9.65047</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9.22144</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12.8292</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9.3784</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9.85815</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.14062</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.4137</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.2545</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.70514</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9.56012</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13.2926</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9.95944</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10.0201</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9.8633</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>13.1935</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10.3771</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10.5635</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.73709</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14.4704</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10.3221</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11.215</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10.3946</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13.8318</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.4914</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.986</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>9.478300000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>13.8258</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>9.40334</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>9.56429</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9.55075</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.1112</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9.35745</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9.25367</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>8.9919</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14.8809</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>9.18633</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9.88583</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.71347</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>15.4003</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9.70003</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.90813</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>10.923</c:v>
+                  <c:v>10.162599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,104 +729,126 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="EEECE1">
+                  <a:lumMod val="25000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EEECE1">
+                  <a:lumMod val="25000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="EEECE1">
+                    <a:lumMod val="25000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>parsed_pid_constants.csv!$C$2:$C$118</c:f>
+              <c:f>parsed_pid_constants.csv!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.61742</c:v>
+                  <c:v>7.6174200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.28765</c:v>
+                  <c:v>7.2876500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.61351</c:v>
+                  <c:v>4.6135099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.35695</c:v>
+                  <c:v>5.3569500000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7403</c:v>
+                  <c:v>4.7403000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.69949</c:v>
+                  <c:v>6.6994899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.66977</c:v>
+                  <c:v>4.6697699999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.66869</c:v>
+                  <c:v>5.6686899999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.03637</c:v>
+                  <c:v>5.0363699999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.39074</c:v>
+                  <c:v>6.3907400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.66247</c:v>
+                  <c:v>4.6624699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.49311</c:v>
+                  <c:v>5.4931099999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.69697</c:v>
+                  <c:v>4.6969700000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5565</c:v>
+                  <c:v>6.5564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.76325</c:v>
+                  <c:v>4.7632500000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4785</c:v>
+                  <c:v>5.4785000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.72911</c:v>
+                  <c:v>4.7291100000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.36447</c:v>
+                  <c:v>6.3644699999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.53913</c:v>
+                  <c:v>4.5391300000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.29608</c:v>
+                  <c:v>5.2960799999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.70568</c:v>
+                  <c:v>4.7056800000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.42389</c:v>
+                  <c:v>6.4238900000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.69034</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.23372</c:v>
+                  <c:v>5.2337199999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.82686</c:v>
+                  <c:v>4.8268599999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.667639999999999</c:v>
+                  <c:v>6.6676399999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4.85792</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.24206</c:v>
+                  <c:v>5.2420600000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.57682</c:v>
+                  <c:v>4.5768199999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.71872</c:v>
+                  <c:v>6.7187200000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.33582</c:v>
@@ -1049,256 +860,97 @@
                   <c:v>4.49247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.64659</c:v>
+                  <c:v>6.6465899999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.40753</c:v>
+                  <c:v>4.4075300000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.29439</c:v>
+                  <c:v>5.2943899999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.46594</c:v>
+                  <c:v>4.4659399999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.6896</c:v>
+                  <c:v>6.6896000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.38522</c:v>
+                  <c:v>4.3852200000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5.36172</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.86939</c:v>
+                  <c:v>4.8693900000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.75144</c:v>
+                  <c:v>6.7514399999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.77908</c:v>
+                  <c:v>4.7790800000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.31794</c:v>
+                  <c:v>5.3179400000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.87028</c:v>
+                  <c:v>4.8702800000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.76502</c:v>
+                  <c:v>6.7650199999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.57028</c:v>
+                  <c:v>4.5702800000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.65811</c:v>
+                  <c:v>5.6581099999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.02882</c:v>
+                  <c:v>5.0288199999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.57526</c:v>
+                  <c:v>6.5752600000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5.17164</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.56572</c:v>
+                  <c:v>5.5657199999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.21844</c:v>
+                  <c:v>5.2184400000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.64071</c:v>
+                  <c:v>6.6407100000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.02757</c:v>
+                  <c:v>5.0275699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.52663</c:v>
+                  <c:v>5.5266299999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.91141</c:v>
+                  <c:v>4.9114100000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.56437</c:v>
+                  <c:v>6.5643700000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.10446</c:v>
+                  <c:v>5.1044600000000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>5.56759</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.05046</c:v>
+                  <c:v>5.0504600000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.40002</c:v>
+                  <c:v>6.4000199999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.69663</c:v>
+                  <c:v>4.6966299999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.11123</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.70965</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.58638</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.8911</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.47496</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.02813</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.61292</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.91468</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.21349</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.90095</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.57093</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.58156</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.32579</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.661539999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.52924</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.53315</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.37572</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.75647</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.52968</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.63156</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.44743</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.04118</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.65424</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.7099</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.50677</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.98134</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.43738</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.76746</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.25447</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.798199999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.602</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.6811</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.65477</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.08109</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.83595</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.86957</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.26596</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.81707</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.0531</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.63655</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5.2416</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.67506</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.12608</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4.39004</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.0354</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4.55537</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>7.33349</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4.38248</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5.15438</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4.64924</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7.40683</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.34534</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5.0589</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4.50055</c:v>
+                  <c:v>5.1112299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,365 +971,219 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="009999"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="009999"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>parsed_pid_constants.csv!$H$2:$H$118</c:f>
+              <c:f>parsed_pid_constants.csv!$H$2:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>6.57218</c:v>
+                  <c:v>6.5721800000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.09851</c:v>
+                  <c:v>6.0985100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.94727</c:v>
+                  <c:v>3.9472700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.46265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.07162</c:v>
+                  <c:v>4.0716200000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.57603</c:v>
+                  <c:v>8.5760299999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.23896</c:v>
+                  <c:v>4.2389599999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.03358</c:v>
+                  <c:v>6.0335799999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.06216</c:v>
+                  <c:v>4.0621600000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.43521</c:v>
+                  <c:v>8.4352099999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.19019</c:v>
+                  <c:v>4.1901900000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.06632</c:v>
+                  <c:v>6.0663200000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.13133</c:v>
+                  <c:v>4.1313300000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.48876</c:v>
+                  <c:v>8.4887599999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.42603</c:v>
+                  <c:v>4.4260299999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.65594</c:v>
+                  <c:v>5.6559400000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.04538</c:v>
+                  <c:v>4.0453799999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.80085</c:v>
+                  <c:v>8.8008500000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.26434</c:v>
+                  <c:v>4.2643399999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.07339</c:v>
+                  <c:v>6.0733899999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.22272</c:v>
+                  <c:v>4.2227199999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.62797</c:v>
+                  <c:v>8.6279699999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.32415</c:v>
+                  <c:v>4.3241500000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.99275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.29414</c:v>
+                  <c:v>4.2941399999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.64766</c:v>
+                  <c:v>8.6476600000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.36765</c:v>
+                  <c:v>4.3676500000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.78852</c:v>
+                  <c:v>5.7885200000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.85623</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.044890000000001</c:v>
+                  <c:v>9.0448900000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.06045</c:v>
+                  <c:v>4.0604500000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.62565</c:v>
+                  <c:v>5.6256500000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.68015</c:v>
+                  <c:v>3.6801499999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.98266</c:v>
+                  <c:v>8.9826599999999992</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.11379</c:v>
+                  <c:v>4.1137899999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.84886</c:v>
+                  <c:v>5.8488600000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.82289</c:v>
+                  <c:v>3.8228900000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.77512</c:v>
+                  <c:v>8.7751199999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.11877</c:v>
+                  <c:v>4.1187699999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.03231</c:v>
+                  <c:v>6.0323099999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3.9137</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.28437</c:v>
+                  <c:v>9.2843699999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.22293</c:v>
+                  <c:v>4.2229299999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.81978</c:v>
+                  <c:v>5.8197799999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.15557</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.97022</c:v>
+                  <c:v>8.9702199999999994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.33452</c:v>
+                  <c:v>4.3345200000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.72746</c:v>
+                  <c:v>5.7274599999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4.07517</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.177960000000001</c:v>
+                  <c:v>9.1779600000000006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.4191</c:v>
+                  <c:v>4.4191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.74721</c:v>
+                  <c:v>5.7472099999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.06462</c:v>
+                  <c:v>4.0646199999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.71456</c:v>
+                  <c:v>8.7145600000000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.37339</c:v>
+                  <c:v>4.3733899999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.76271</c:v>
+                  <c:v>5.7627100000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.14746</c:v>
+                  <c:v>4.1474599999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.69942</c:v>
+                  <c:v>8.6994199999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.62815</c:v>
+                  <c:v>4.6281499999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.83109</c:v>
+                  <c:v>5.8310899999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.35704</c:v>
+                  <c:v>4.3570399999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.39331</c:v>
+                  <c:v>8.3933099999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.30925</c:v>
+                  <c:v>4.3092499999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.69195</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.18007</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.57339</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.25043</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.82912</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.00501</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.66266</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.27635</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.93745</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.22389</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.30424</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.14775</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.88341</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.92455</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.71555</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.2479</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.68462</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.99661</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.38701</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.2046</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.83497</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1115</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.47146</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.32627</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.81669</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.34392</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.07495</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.26692</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.94568</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.0303</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.05287</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.39965</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.131</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.4884</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.65341</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.49499</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.753459999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.13538</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>9.4087</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.70404</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5.18709</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.15064</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>9.62344</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4.38682</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.50254</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.91421</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10.692</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5.25208</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4.72351</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4.99548</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>8.96161</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.08429</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.18863</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.96082</c:v>
+                  <c:v>5.6919500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,20 +1200,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123215448"/>
-        <c:axId val="-2065068056"/>
+        <c:axId val="88884352"/>
+        <c:axId val="88885888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123215448"/>
+        <c:axId val="88884352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="0"/>
+                  <a:t>Picture ID (encoding order)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065068056"/>
+        <c:crossAx val="88885888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,34 +1240,90 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065068056"/>
+        <c:axId val="88885888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="0"/>
+                  <a:t>Elapsed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="0" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123215448"/>
+        <c:crossAx val="88884352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3469428439692458"/>
+          <c:y val="1.45775435983529E-2"/>
+          <c:w val="0.26287881887515252"/>
+          <c:h val="0.10474096073597483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1752,16 +1333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1004455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,17 +1684,294 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="100000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C118" activeCellId="1" sqref="H1:H118 A1:C118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.88</v>
       </c>
@@ -2231,7 +2089,7 @@
         <v>6.8587400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2</f>
         <v>5.88</v>
@@ -2285,7 +2143,7 @@
         <v>7.3893300000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3</f>
         <v>5.88</v>
@@ -2339,7 +2197,7 @@
         <v>4.2224000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2393,7 +2251,7 @@
         <v>9.3796099999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2447,7 +2305,7 @@
         <v>0.771478</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2501,7 +2359,7 @@
         <v>12.4039</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2555,7 +2413,7 @@
         <v>0.767424</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2609,7 +2467,7 @@
         <v>9.6284700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2663,7 +2521,7 @@
         <v>0.76853700000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2717,7 +2575,7 @@
         <v>12.3497</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2771,7 +2629,7 @@
         <v>0.72184199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2825,7 +2683,7 @@
         <v>9.48184</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2879,7 +2737,7 @@
         <v>0.73877499999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2933,7 +2791,7 @@
         <v>12.0785</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -2987,7 +2845,7 @@
         <v>0.695882</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3041,7 +2899,7 @@
         <v>9.3796900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3095,7 +2953,7 @@
         <v>0.72363</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3149,7 +3007,7 @@
         <v>12.3233</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3203,7 +3061,7 @@
         <v>0.70667100000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3257,7 +3115,7 @@
         <v>9.45139</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3311,7 +3169,7 @@
         <v>0.74590299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3365,7 +3223,7 @@
         <v>12.5878</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3419,7 +3277,7 @@
         <v>0.75398399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3473,7 +3331,7 @@
         <v>9.6810100000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3527,7 +3385,7 @@
         <v>0.75460799999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3581,7 +3439,7 @@
         <v>12.7278</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3635,7 +3493,7 @@
         <v>0.73219100000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3689,7 +3547,7 @@
         <v>9.3853899999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3743,7 +3601,7 @@
         <v>0.71143199999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3797,7 +3655,7 @@
         <v>12.417</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3851,7 +3709,7 @@
         <v>0.65218799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3905,7 +3763,7 @@
         <v>8.63443</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -3959,7 +3817,7 @@
         <v>0.660084</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4013,7 +3871,7 @@
         <v>11.9495</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4067,7 +3925,7 @@
         <v>0.65987099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4121,7 +3979,7 @@
         <v>8.9719700000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4175,7 +4033,7 @@
         <v>0.688195</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4229,7 +4087,7 @@
         <v>12.0204</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4283,7 +4141,7 @@
         <v>0.66878599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4337,7 +4195,7 @@
         <v>9.0495900000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4391,7 +4249,7 @@
         <v>0.70491000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4445,7 +4303,7 @@
         <v>12.3818</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4499,7 +4357,7 @@
         <v>0.70192200000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4553,7 +4411,7 @@
         <v>9.1283600000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4607,7 +4465,7 @@
         <v>0.72384999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4661,7 +4519,7 @@
         <v>12.4056</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4715,7 +4573,7 @@
         <v>0.72690399999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4769,7 +4627,7 @@
         <v>9.3422800000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4823,7 +4681,7 @@
         <v>0.74173999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4877,7 +4735,7 @@
         <v>12.366400000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4931,7 +4789,7 @@
         <v>0.72138400000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -4985,7 +4843,7 @@
         <v>9.4454600000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5039,7 +4897,7 @@
         <v>0.74326800000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5093,7 +4951,7 @@
         <v>12.349600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5147,7 +5005,7 @@
         <v>0.69629099999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5201,7 +5059,7 @@
         <v>9.3026599999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5255,7 +5113,7 @@
         <v>0.74426000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5309,7 +5167,7 @@
         <v>12.433999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5363,7 +5221,7 @@
         <v>0.75177099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5417,7 +5275,7 @@
         <v>9.6584400000000006</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5471,7 +5329,7 @@
         <v>0.74838800000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5525,7 +5383,7 @@
         <v>12.7746</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5579,7 +5437,7 @@
         <v>0.68314900000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5633,7 +5491,7 @@
         <v>9.1325900000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5687,7 +5545,7 @@
         <v>0.71550000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>5.88</v>
@@ -5741,7 +5599,7 @@
         <v>12.5677</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ref="A68:A125" si="1">A67</f>
         <v>5.88</v>
@@ -5795,7 +5653,7 @@
         <v>0.68389100000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -5849,7 +5707,7 @@
         <v>9.4087800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -5903,7 +5761,7 @@
         <v>0.73570199999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -5957,7 +5815,7 @@
         <v>12.5684</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6011,7 +5869,7 @@
         <v>0.73258999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6065,7 +5923,7 @@
         <v>9.61435</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6119,7 +5977,7 @@
         <v>0.76157399999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6173,7 +6031,7 @@
         <v>12.2859</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6227,7 +6085,7 @@
         <v>0.65612599999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6281,7 +6139,7 @@
         <v>9.0531600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6335,7 +6193,7 @@
         <v>0.68935299999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6389,7 +6247,7 @@
         <v>12.187900000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6443,7 +6301,7 @@
         <v>0.65992300000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6497,7 +6355,7 @@
         <v>8.9759899999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6551,7 +6409,7 @@
         <v>0.672296</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6605,7 +6463,7 @@
         <v>12.0153</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6659,7 +6517,7 @@
         <v>0.68141099999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6713,7 +6571,7 @@
         <v>9.3721399999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6767,7 +6625,7 @@
         <v>0.74434999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6821,7 +6679,7 @@
         <v>12.2525</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6875,7 +6733,7 @@
         <v>0.68770600000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6929,7 +6787,7 @@
         <v>9.5868199999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -6983,7 +6841,7 @@
         <v>0.745591</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7037,7 +6895,7 @@
         <v>12.416</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7091,7 +6949,7 @@
         <v>0.69811000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7145,7 +7003,7 @@
         <v>9.37744</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7199,7 +7057,7 @@
         <v>0.68654499999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7253,7 +7111,7 @@
         <v>12.521000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7307,7 +7165,7 @@
         <v>0.67349300000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7361,7 +7219,7 @@
         <v>9.6902100000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7415,7 +7273,7 @@
         <v>0.73604700000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7469,7 +7327,7 @@
         <v>13.220499999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7523,7 +7381,7 @@
         <v>0.71906599999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7577,7 +7435,7 @@
         <v>9.3364999999999991</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7631,7 +7489,7 @@
         <v>0.696716</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7685,7 +7543,7 @@
         <v>13.1799</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7739,7 +7597,7 @@
         <v>0.70793799999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7793,7 +7651,7 @@
         <v>9.0411800000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7847,7 +7705,7 @@
         <v>0.68035299999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7901,7 +7759,7 @@
         <v>13.159000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -7955,7 +7813,7 @@
         <v>0.65351300000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8009,7 +7867,7 @@
         <v>8.5916999999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8063,7 +7921,7 @@
         <v>0.69611199999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8117,7 +7975,7 @@
         <v>13.7279</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8171,7 +8029,7 @@
         <v>0.65966199999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8225,7 +8083,7 @@
         <v>9.0026700000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8279,7 +8137,7 @@
         <v>0.64936499999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8333,7 +8191,7 @@
         <v>13.9962</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8387,7 +8245,7 @@
         <v>0.62804800000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8441,7 +8299,7 @@
         <v>8.7367100000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8495,7 +8353,7 @@
         <v>0.61834599999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8549,7 +8407,7 @@
         <v>13.5023</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8603,7 +8461,7 @@
         <v>0.61691200000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8657,7 +8515,7 @@
         <v>8.4041099999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8711,7 +8569,7 @@
         <v>0.580515</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8765,7 +8623,7 @@
         <v>12.0579</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8819,7 +8677,7 @@
         <v>0.51711099999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>5.88</v>
@@ -8873,7 +8731,7 @@
         <v>7.70282</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>-579.19230000000005</v>
       </c>
@@ -8933,4 +8791,5325 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S129"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.88</v>
+      </c>
+      <c r="B2">
+        <v>6.7557799999999997</v>
+      </c>
+      <c r="C2">
+        <v>7.6174200000000001</v>
+      </c>
+      <c r="D2">
+        <v>7.2679299999999998</v>
+      </c>
+      <c r="E2">
+        <v>6.5625299999999998</v>
+      </c>
+      <c r="F2">
+        <v>6.5926</v>
+      </c>
+      <c r="G2">
+        <v>6.6244100000000001</v>
+      </c>
+      <c r="H2">
+        <v>6.5721800000000004</v>
+      </c>
+      <c r="I2">
+        <v>6.5263999999999998</v>
+      </c>
+      <c r="J2">
+        <v>6.5669199999999996</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(B2:B5)</f>
+        <v>7.3567825000000004</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:R2" si="0">AVERAGE(C2:C5)</f>
+        <v>6.2188825000000003</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>5.9068100000000001</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>5.3811550000000006</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>5.4105474999999998</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>5.3518024999999998</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>5.7701525</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>6.0719450000000004</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(J2:J5)</f>
+        <v>6.3664849999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2</f>
+        <v>5.88</v>
+      </c>
+      <c r="B3">
+        <v>7.7860399999999998</v>
+      </c>
+      <c r="C3">
+        <v>7.2876500000000002</v>
+      </c>
+      <c r="D3">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="E3">
+        <v>6.4073099999999998</v>
+      </c>
+      <c r="F3">
+        <v>6.1847899999999996</v>
+      </c>
+      <c r="G3">
+        <v>6.26783</v>
+      </c>
+      <c r="H3">
+        <v>6.0985100000000001</v>
+      </c>
+      <c r="I3">
+        <v>6.1438100000000002</v>
+      </c>
+      <c r="J3">
+        <v>5.9191900000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="1">A3</f>
+        <v>5.88</v>
+      </c>
+      <c r="B4">
+        <v>7.4642499999999998</v>
+      </c>
+      <c r="C4">
+        <v>4.6135099999999998</v>
+      </c>
+      <c r="D4">
+        <v>4.4189100000000003</v>
+      </c>
+      <c r="E4">
+        <v>3.9773900000000002</v>
+      </c>
+      <c r="F4">
+        <v>4.1080399999999999</v>
+      </c>
+      <c r="G4">
+        <v>4.0431699999999999</v>
+      </c>
+      <c r="H4">
+        <v>3.9472700000000001</v>
+      </c>
+      <c r="I4">
+        <v>4.0678400000000003</v>
+      </c>
+      <c r="J4">
+        <v>3.8970600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B5">
+        <v>7.4210599999999998</v>
+      </c>
+      <c r="C5">
+        <v>5.3569500000000003</v>
+      </c>
+      <c r="D5">
+        <v>4.9783999999999997</v>
+      </c>
+      <c r="E5">
+        <v>4.5773900000000003</v>
+      </c>
+      <c r="F5">
+        <v>4.7567599999999999</v>
+      </c>
+      <c r="G5">
+        <v>4.4718</v>
+      </c>
+      <c r="H5">
+        <v>6.46265</v>
+      </c>
+      <c r="I5">
+        <v>7.5497300000000003</v>
+      </c>
+      <c r="J5">
+        <v>9.08277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B6">
+        <v>6.8427899999999999</v>
+      </c>
+      <c r="C6">
+        <v>4.7403000000000004</v>
+      </c>
+      <c r="D6">
+        <v>4.6414999999999997</v>
+      </c>
+      <c r="E6">
+        <v>4.3377499999999998</v>
+      </c>
+      <c r="F6">
+        <v>4.3612099999999998</v>
+      </c>
+      <c r="G6">
+        <v>4.1648800000000001</v>
+      </c>
+      <c r="H6">
+        <v>4.0716200000000002</v>
+      </c>
+      <c r="I6">
+        <v>4.3201900000000002</v>
+      </c>
+      <c r="J6">
+        <v>6.1843500000000002</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(B6:B9)</f>
+        <v>9.3318924999999986</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:R6" si="2">AVERAGE(C6:C9)</f>
+        <v>5.4445625</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>5.1804424999999998</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>4.8175349999999995</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>4.9252125000000007</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>4.8763500000000004</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>5.7300474999999995</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>6.09246</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGE(J6:J9)</f>
+        <v>6.3271249999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B7">
+        <v>8.4936799999999995</v>
+      </c>
+      <c r="C7">
+        <v>6.6994899999999999</v>
+      </c>
+      <c r="D7">
+        <v>6.5002899999999997</v>
+      </c>
+      <c r="E7">
+        <v>6.4607900000000003</v>
+      </c>
+      <c r="F7">
+        <v>6.6124999999999998</v>
+      </c>
+      <c r="G7">
+        <v>6.70547</v>
+      </c>
+      <c r="H7">
+        <v>8.5760299999999994</v>
+      </c>
+      <c r="I7">
+        <v>9.5736699999999999</v>
+      </c>
+      <c r="J7">
+        <v>6.4205899999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B8">
+        <v>11.597899999999999</v>
+      </c>
+      <c r="C8">
+        <v>4.6697699999999998</v>
+      </c>
+      <c r="D8">
+        <v>4.6173799999999998</v>
+      </c>
+      <c r="E8">
+        <v>3.9028800000000001</v>
+      </c>
+      <c r="F8">
+        <v>4.1348200000000004</v>
+      </c>
+      <c r="G8">
+        <v>4.1323400000000001</v>
+      </c>
+      <c r="H8">
+        <v>4.2389599999999996</v>
+      </c>
+      <c r="I8">
+        <v>5.9434199999999997</v>
+      </c>
+      <c r="J8">
+        <v>4.1143200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B9">
+        <v>10.3932</v>
+      </c>
+      <c r="C9">
+        <v>5.6686899999999998</v>
+      </c>
+      <c r="D9">
+        <v>4.9626000000000001</v>
+      </c>
+      <c r="E9">
+        <v>4.5687199999999999</v>
+      </c>
+      <c r="F9">
+        <v>4.59232</v>
+      </c>
+      <c r="G9">
+        <v>4.5027100000000004</v>
+      </c>
+      <c r="H9">
+        <v>6.0335799999999997</v>
+      </c>
+      <c r="I9">
+        <v>4.5325600000000001</v>
+      </c>
+      <c r="J9">
+        <v>8.5892400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B10">
+        <v>9.9676799999999997</v>
+      </c>
+      <c r="C10">
+        <v>5.0363699999999998</v>
+      </c>
+      <c r="D10">
+        <v>5.2669699999999997</v>
+      </c>
+      <c r="E10">
+        <v>4.3096800000000002</v>
+      </c>
+      <c r="F10">
+        <v>4.3848799999999999</v>
+      </c>
+      <c r="G10">
+        <v>4.1596399999999996</v>
+      </c>
+      <c r="H10">
+        <v>4.0621600000000004</v>
+      </c>
+      <c r="I10">
+        <v>6.0963399999999996</v>
+      </c>
+      <c r="J10">
+        <v>5.5779199999999998</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(B10:B13)</f>
+        <v>10.724259999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:R10" si="3">AVERAGE(C10:C13)</f>
+        <v>5.3956724999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>5.7031799999999997</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4.7766950000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>4.8792400000000002</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>4.8306399999999998</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>5.6884700000000006</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>5.9554</v>
+      </c>
+      <c r="S10">
+        <f>AVERAGE(J10:J13)</f>
+        <v>6.2153875000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B11">
+        <v>13.357100000000001</v>
+      </c>
+      <c r="C11">
+        <v>6.3907400000000001</v>
+      </c>
+      <c r="D11">
+        <v>7.3575499999999998</v>
+      </c>
+      <c r="E11">
+        <v>6.4605499999999996</v>
+      </c>
+      <c r="F11">
+        <v>6.5928500000000003</v>
+      </c>
+      <c r="G11">
+        <v>6.7427299999999999</v>
+      </c>
+      <c r="H11">
+        <v>8.4352099999999997</v>
+      </c>
+      <c r="I11">
+        <v>6.4157799999999998</v>
+      </c>
+      <c r="J11">
+        <v>6.6814799999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B12">
+        <v>9.7579899999999995</v>
+      </c>
+      <c r="C12">
+        <v>4.6624699999999999</v>
+      </c>
+      <c r="D12">
+        <v>4.8742799999999997</v>
+      </c>
+      <c r="E12">
+        <v>3.81128</v>
+      </c>
+      <c r="F12">
+        <v>4.0028199999999998</v>
+      </c>
+      <c r="G12">
+        <v>4.0545499999999999</v>
+      </c>
+      <c r="H12">
+        <v>4.1901900000000003</v>
+      </c>
+      <c r="I12">
+        <v>3.9748299999999999</v>
+      </c>
+      <c r="J12">
+        <v>4.0609700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B13">
+        <v>9.8142700000000005</v>
+      </c>
+      <c r="C13">
+        <v>5.4931099999999997</v>
+      </c>
+      <c r="D13">
+        <v>5.3139200000000004</v>
+      </c>
+      <c r="E13">
+        <v>4.5252699999999999</v>
+      </c>
+      <c r="F13">
+        <v>4.5364100000000001</v>
+      </c>
+      <c r="G13">
+        <v>4.36564</v>
+      </c>
+      <c r="H13">
+        <v>6.0663200000000002</v>
+      </c>
+      <c r="I13">
+        <v>7.3346499999999999</v>
+      </c>
+      <c r="J13">
+        <v>8.5411800000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B14">
+        <v>9.4815400000000007</v>
+      </c>
+      <c r="C14">
+        <v>4.6969700000000003</v>
+      </c>
+      <c r="D14">
+        <v>5.2123200000000001</v>
+      </c>
+      <c r="E14">
+        <v>4.1678100000000002</v>
+      </c>
+      <c r="F14">
+        <v>4.1837</v>
+      </c>
+      <c r="G14">
+        <v>3.9916200000000002</v>
+      </c>
+      <c r="H14">
+        <v>4.1313300000000002</v>
+      </c>
+      <c r="I14">
+        <v>4.1678100000000002</v>
+      </c>
+      <c r="J14">
+        <v>5.4256200000000003</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(B14:B17)</f>
+        <v>10.2939875</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:R14" si="4">AVERAGE(C14:C17)</f>
+        <v>5.3738049999999999</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>5.5061675000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>4.7797900000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>4.8357375000000005</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>4.7732124999999996</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>5.6755149999999999</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>5.8621125000000003</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(J14:J17)</f>
+        <v>6.2218400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B15">
+        <v>12.6098</v>
+      </c>
+      <c r="C15">
+        <v>6.5564999999999998</v>
+      </c>
+      <c r="D15">
+        <v>7.0889199999999999</v>
+      </c>
+      <c r="E15">
+        <v>6.3905500000000002</v>
+      </c>
+      <c r="F15">
+        <v>6.5195100000000004</v>
+      </c>
+      <c r="G15">
+        <v>6.6411100000000003</v>
+      </c>
+      <c r="H15">
+        <v>8.4887599999999992</v>
+      </c>
+      <c r="I15">
+        <v>9.4116999999999997</v>
+      </c>
+      <c r="J15">
+        <v>7.0819400000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B16">
+        <v>9.3941199999999991</v>
+      </c>
+      <c r="C16">
+        <v>4.7632500000000002</v>
+      </c>
+      <c r="D16">
+        <v>4.5900100000000004</v>
+      </c>
+      <c r="E16">
+        <v>3.9003299999999999</v>
+      </c>
+      <c r="F16">
+        <v>4.1082000000000001</v>
+      </c>
+      <c r="G16">
+        <v>4.03613</v>
+      </c>
+      <c r="H16">
+        <v>4.4260299999999999</v>
+      </c>
+      <c r="I16">
+        <v>5.4650400000000001</v>
+      </c>
+      <c r="J16">
+        <v>4.2607499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B17">
+        <v>9.6904900000000005</v>
+      </c>
+      <c r="C17">
+        <v>5.4785000000000004</v>
+      </c>
+      <c r="D17">
+        <v>5.1334200000000001</v>
+      </c>
+      <c r="E17">
+        <v>4.6604700000000001</v>
+      </c>
+      <c r="F17">
+        <v>4.5315399999999997</v>
+      </c>
+      <c r="G17">
+        <v>4.4239899999999999</v>
+      </c>
+      <c r="H17">
+        <v>5.6559400000000002</v>
+      </c>
+      <c r="I17">
+        <v>4.4039000000000001</v>
+      </c>
+      <c r="J17">
+        <v>8.1190499999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B18">
+        <v>9.1360299999999999</v>
+      </c>
+      <c r="C18">
+        <v>4.7291100000000004</v>
+      </c>
+      <c r="D18">
+        <v>4.7598500000000001</v>
+      </c>
+      <c r="E18">
+        <v>4.1292799999999996</v>
+      </c>
+      <c r="F18">
+        <v>4.1661299999999999</v>
+      </c>
+      <c r="G18">
+        <v>4.03566</v>
+      </c>
+      <c r="H18">
+        <v>4.0453799999999998</v>
+      </c>
+      <c r="I18">
+        <v>6.1885899999999996</v>
+      </c>
+      <c r="J18">
+        <v>4.9476899999999997</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(B18:B21)</f>
+        <v>10.183695</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:R18" si="5">AVERAGE(C18:C21)</f>
+        <v>5.2321974999999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>5.2261775000000004</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>4.8481900000000007</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>4.8195949999999996</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>4.8019875000000001</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>5.7959899999999998</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>5.960045</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(J18:J21)</f>
+        <v>6.1165424999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B19">
+        <v>12.676</v>
+      </c>
+      <c r="C19">
+        <v>6.3644699999999998</v>
+      </c>
+      <c r="D19">
+        <v>6.5151300000000001</v>
+      </c>
+      <c r="E19">
+        <v>6.6022800000000004</v>
+      </c>
+      <c r="F19">
+        <v>6.5014700000000003</v>
+      </c>
+      <c r="G19">
+        <v>6.7045500000000002</v>
+      </c>
+      <c r="H19">
+        <v>8.8008500000000005</v>
+      </c>
+      <c r="I19">
+        <v>6.4045899999999998</v>
+      </c>
+      <c r="J19">
+        <v>8.8774300000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B20">
+        <v>9.3646700000000003</v>
+      </c>
+      <c r="C20">
+        <v>4.5391300000000001</v>
+      </c>
+      <c r="D20">
+        <v>4.5396700000000001</v>
+      </c>
+      <c r="E20">
+        <v>4.0280899999999997</v>
+      </c>
+      <c r="F20">
+        <v>4.0915999999999997</v>
+      </c>
+      <c r="G20">
+        <v>4.03078</v>
+      </c>
+      <c r="H20">
+        <v>4.2643399999999998</v>
+      </c>
+      <c r="I20">
+        <v>4.0484</v>
+      </c>
+      <c r="J20">
+        <v>6.1061300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B21">
+        <v>9.5580800000000004</v>
+      </c>
+      <c r="C21">
+        <v>5.2960799999999999</v>
+      </c>
+      <c r="D21">
+        <v>5.0900600000000003</v>
+      </c>
+      <c r="E21">
+        <v>4.6331100000000003</v>
+      </c>
+      <c r="F21">
+        <v>4.5191800000000004</v>
+      </c>
+      <c r="G21">
+        <v>4.43696</v>
+      </c>
+      <c r="H21">
+        <v>6.0733899999999998</v>
+      </c>
+      <c r="I21">
+        <v>7.1985999999999999</v>
+      </c>
+      <c r="J21">
+        <v>4.5349199999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B22">
+        <v>9.3575900000000001</v>
+      </c>
+      <c r="C22">
+        <v>4.7056800000000001</v>
+      </c>
+      <c r="D22">
+        <v>4.68133</v>
+      </c>
+      <c r="E22">
+        <v>4.2277899999999997</v>
+      </c>
+      <c r="F22">
+        <v>4.2604199999999999</v>
+      </c>
+      <c r="G22">
+        <v>4.0966800000000001</v>
+      </c>
+      <c r="H22">
+        <v>4.2227199999999998</v>
+      </c>
+      <c r="I22">
+        <v>4.2421699999999998</v>
+      </c>
+      <c r="J22">
+        <v>7.1428599999999998</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(B22:B25)</f>
+        <v>10.636375000000001</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:R22" si="6">AVERAGE(C22:C25)</f>
+        <v>5.2634074999999996</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>5.2034750000000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>4.9525524999999995</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>4.9309824999999989</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>4.9542799999999998</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>5.7918975000000001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>6.0561949999999998</v>
+      </c>
+      <c r="S22">
+        <f>AVERAGE(J22:J25)</f>
+        <v>6.5669024999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B23">
+        <v>13.539300000000001</v>
+      </c>
+      <c r="C23">
+        <v>6.4238900000000001</v>
+      </c>
+      <c r="D23">
+        <v>6.4540100000000002</v>
+      </c>
+      <c r="E23">
+        <v>6.6211700000000002</v>
+      </c>
+      <c r="F23">
+        <v>6.5805499999999997</v>
+      </c>
+      <c r="G23">
+        <v>6.8276000000000003</v>
+      </c>
+      <c r="H23">
+        <v>8.6279699999999995</v>
+      </c>
+      <c r="I23">
+        <v>9.5854900000000001</v>
+      </c>
+      <c r="J23">
+        <v>5.8355199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B24">
+        <v>9.6851099999999999</v>
+      </c>
+      <c r="C24">
+        <v>4.69034</v>
+      </c>
+      <c r="D24">
+        <v>4.6984599999999999</v>
+      </c>
+      <c r="E24">
+        <v>4.1914999999999996</v>
+      </c>
+      <c r="F24">
+        <v>4.2355799999999997</v>
+      </c>
+      <c r="G24">
+        <v>4.3015600000000003</v>
+      </c>
+      <c r="H24">
+        <v>4.3241500000000004</v>
+      </c>
+      <c r="I24">
+        <v>5.8230599999999999</v>
+      </c>
+      <c r="J24">
+        <v>4.2914199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B25">
+        <v>9.9634999999999998</v>
+      </c>
+      <c r="C25">
+        <v>5.2337199999999999</v>
+      </c>
+      <c r="D25">
+        <v>4.9801000000000002</v>
+      </c>
+      <c r="E25">
+        <v>4.7697500000000002</v>
+      </c>
+      <c r="F25">
+        <v>4.6473800000000001</v>
+      </c>
+      <c r="G25">
+        <v>4.5912800000000002</v>
+      </c>
+      <c r="H25">
+        <v>5.99275</v>
+      </c>
+      <c r="I25">
+        <v>4.5740600000000002</v>
+      </c>
+      <c r="J25">
+        <v>8.9978099999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B26">
+        <v>9.7096099999999996</v>
+      </c>
+      <c r="C26">
+        <v>4.8268599999999999</v>
+      </c>
+      <c r="D26">
+        <v>4.8942199999999998</v>
+      </c>
+      <c r="E26">
+        <v>4.4454700000000003</v>
+      </c>
+      <c r="F26">
+        <v>4.4642999999999997</v>
+      </c>
+      <c r="G26">
+        <v>4.28376</v>
+      </c>
+      <c r="H26">
+        <v>4.2941399999999996</v>
+      </c>
+      <c r="I26">
+        <v>6.1743100000000002</v>
+      </c>
+      <c r="J26">
+        <v>6.5698499999999997</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(B26:B29)</f>
+        <v>10.479904999999999</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:R26" si="7">AVERAGE(C26:C29)</f>
+        <v>5.3986199999999993</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>5.2569049999999997</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>4.9851325000000006</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>4.9990749999999995</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>4.9826299999999994</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>5.7744925000000009</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>5.9645275</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(J26:J29)</f>
+        <v>6.4335275000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B27">
+        <v>13.207599999999999</v>
+      </c>
+      <c r="C27">
+        <v>6.6676399999999996</v>
+      </c>
+      <c r="D27">
+        <v>6.7518200000000004</v>
+      </c>
+      <c r="E27">
+        <v>6.80809</v>
+      </c>
+      <c r="F27">
+        <v>6.8519699999999997</v>
+      </c>
+      <c r="G27">
+        <v>6.9391499999999997</v>
+      </c>
+      <c r="H27">
+        <v>8.6476600000000001</v>
+      </c>
+      <c r="I27">
+        <v>6.6161700000000003</v>
+      </c>
+      <c r="J27">
+        <v>6.6273499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B28">
+        <v>9.5046099999999996</v>
+      </c>
+      <c r="C28">
+        <v>4.85792</v>
+      </c>
+      <c r="D28">
+        <v>4.56379</v>
+      </c>
+      <c r="E28">
+        <v>4.1975100000000003</v>
+      </c>
+      <c r="F28">
+        <v>4.1657500000000001</v>
+      </c>
+      <c r="G28">
+        <v>4.26586</v>
+      </c>
+      <c r="H28">
+        <v>4.3676500000000003</v>
+      </c>
+      <c r="I28">
+        <v>4.2846599999999997</v>
+      </c>
+      <c r="J28">
+        <v>4.3835300000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B29">
+        <v>9.4977999999999998</v>
+      </c>
+      <c r="C29">
+        <v>5.2420600000000004</v>
+      </c>
+      <c r="D29">
+        <v>4.8177899999999996</v>
+      </c>
+      <c r="E29">
+        <v>4.4894600000000002</v>
+      </c>
+      <c r="F29">
+        <v>4.5142800000000003</v>
+      </c>
+      <c r="G29">
+        <v>4.4417499999999999</v>
+      </c>
+      <c r="H29">
+        <v>5.7885200000000001</v>
+      </c>
+      <c r="I29">
+        <v>6.7829699999999997</v>
+      </c>
+      <c r="J29">
+        <v>8.1533800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B30">
+        <v>9.0055899999999998</v>
+      </c>
+      <c r="C30">
+        <v>4.5768199999999997</v>
+      </c>
+      <c r="D30">
+        <v>4.6005700000000003</v>
+      </c>
+      <c r="E30">
+        <v>4.1269900000000002</v>
+      </c>
+      <c r="F30">
+        <v>4.0635399999999997</v>
+      </c>
+      <c r="G30">
+        <v>4.0288399999999998</v>
+      </c>
+      <c r="H30">
+        <v>3.85623</v>
+      </c>
+      <c r="I30">
+        <v>4.0620599999999998</v>
+      </c>
+      <c r="J30">
+        <v>5.0867800000000001</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE(B30:B33)</f>
+        <v>9.8505225000000003</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:R30" si="8">AVERAGE(C30:C33)</f>
+        <v>5.200615</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>5.0009049999999995</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>4.6229274999999994</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>4.6079399999999993</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>4.78322</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>5.6468050000000005</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>6.0244650000000002</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE(J30:J33)</f>
+        <v>5.9409224999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B31">
+        <v>12.8019</v>
+      </c>
+      <c r="C31">
+        <v>6.7187200000000002</v>
+      </c>
+      <c r="D31">
+        <v>6.5267299999999997</v>
+      </c>
+      <c r="E31">
+        <v>6.6303799999999997</v>
+      </c>
+      <c r="F31">
+        <v>6.6102999999999996</v>
+      </c>
+      <c r="G31">
+        <v>6.9738300000000004</v>
+      </c>
+      <c r="H31">
+        <v>9.0448900000000005</v>
+      </c>
+      <c r="I31">
+        <v>10.075799999999999</v>
+      </c>
+      <c r="J31">
+        <v>8.8948499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B32">
+        <v>8.8210899999999999</v>
+      </c>
+      <c r="C32">
+        <v>4.33582</v>
+      </c>
+      <c r="D32">
+        <v>4.2885299999999997</v>
+      </c>
+      <c r="E32">
+        <v>3.67123</v>
+      </c>
+      <c r="F32">
+        <v>3.7338900000000002</v>
+      </c>
+      <c r="G32">
+        <v>4.0572400000000002</v>
+      </c>
+      <c r="H32">
+        <v>4.0604500000000003</v>
+      </c>
+      <c r="I32">
+        <v>5.9779299999999997</v>
+      </c>
+      <c r="J32">
+        <v>5.7996600000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B33">
+        <v>8.7735099999999999</v>
+      </c>
+      <c r="C33">
+        <v>5.1711</v>
+      </c>
+      <c r="D33">
+        <v>4.58779</v>
+      </c>
+      <c r="E33">
+        <v>4.06311</v>
+      </c>
+      <c r="F33">
+        <v>4.0240299999999998</v>
+      </c>
+      <c r="G33">
+        <v>4.0729699999999998</v>
+      </c>
+      <c r="H33">
+        <v>5.6256500000000003</v>
+      </c>
+      <c r="I33">
+        <v>3.9820700000000002</v>
+      </c>
+      <c r="J33">
+        <v>3.9824000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B34">
+        <v>8.7593300000000003</v>
+      </c>
+      <c r="C34">
+        <v>4.49247</v>
+      </c>
+      <c r="D34">
+        <v>4.5066300000000004</v>
+      </c>
+      <c r="E34">
+        <v>3.8972799999999999</v>
+      </c>
+      <c r="F34">
+        <v>3.8531499999999999</v>
+      </c>
+      <c r="G34">
+        <v>3.8036400000000001</v>
+      </c>
+      <c r="H34">
+        <v>3.6801499999999998</v>
+      </c>
+      <c r="I34">
+        <v>6.56935</v>
+      </c>
+      <c r="J34">
+        <v>8.2081499999999998</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(B34:B37)</f>
+        <v>9.8654499999999992</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:R34" si="9">AVERAGE(C34:C37)</f>
+        <v>5.2102450000000005</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>4.9779549999999997</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>4.5563725000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>4.6932875000000003</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>5.6563649999999992</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="9"/>
+        <v>5.9758900000000006</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(J34:J37)</f>
+        <v>6.7860100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B35">
+        <v>12.4338</v>
+      </c>
+      <c r="C35">
+        <v>6.6465899999999998</v>
+      </c>
+      <c r="D35">
+        <v>6.2638699999999998</v>
+      </c>
+      <c r="E35">
+        <v>6.2729200000000001</v>
+      </c>
+      <c r="F35">
+        <v>6.3727999999999998</v>
+      </c>
+      <c r="G35">
+        <v>6.8112899999999996</v>
+      </c>
+      <c r="H35">
+        <v>8.9826599999999992</v>
+      </c>
+      <c r="I35">
+        <v>6.0039899999999999</v>
+      </c>
+      <c r="J35">
+        <v>6.3465100000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B36">
+        <v>8.9346399999999999</v>
+      </c>
+      <c r="C36">
+        <v>4.4075300000000004</v>
+      </c>
+      <c r="D36">
+        <v>4.3091100000000004</v>
+      </c>
+      <c r="E36">
+        <v>3.7445300000000001</v>
+      </c>
+      <c r="F36">
+        <v>3.7444899999999999</v>
+      </c>
+      <c r="G36">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="H36">
+        <v>4.1137899999999998</v>
+      </c>
+      <c r="I36">
+        <v>3.7206399999999999</v>
+      </c>
+      <c r="J36">
+        <v>3.80524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B37">
+        <v>9.3340300000000003</v>
+      </c>
+      <c r="C37">
+        <v>5.2943899999999999</v>
+      </c>
+      <c r="D37">
+        <v>4.8322099999999999</v>
+      </c>
+      <c r="E37">
+        <v>4.3107600000000001</v>
+      </c>
+      <c r="F37">
+        <v>4.3175600000000003</v>
+      </c>
+      <c r="G37">
+        <v>4.2802199999999999</v>
+      </c>
+      <c r="H37">
+        <v>5.8488600000000002</v>
+      </c>
+      <c r="I37">
+        <v>7.6095800000000002</v>
+      </c>
+      <c r="J37">
+        <v>8.7841400000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B38">
+        <v>8.9570500000000006</v>
+      </c>
+      <c r="C38">
+        <v>4.4659399999999998</v>
+      </c>
+      <c r="D38">
+        <v>4.6252800000000001</v>
+      </c>
+      <c r="E38">
+        <v>4.0241600000000002</v>
+      </c>
+      <c r="F38">
+        <v>3.9712700000000001</v>
+      </c>
+      <c r="G38">
+        <v>3.7920099999999999</v>
+      </c>
+      <c r="H38">
+        <v>3.8228900000000001</v>
+      </c>
+      <c r="I38">
+        <v>4.0433599999999998</v>
+      </c>
+      <c r="J38">
+        <v>5.4866000000000001</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(B38:B41)</f>
+        <v>9.8729224999999996</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:R38" si="10">AVERAGE(C38:C41)</f>
+        <v>5.2256200000000002</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="10"/>
+        <v>5.1004375</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="10"/>
+        <v>4.6789474999999996</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>4.6763225000000004</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="10"/>
+        <v>4.7619674999999999</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>5.6872724999999997</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>5.9476550000000001</v>
+      </c>
+      <c r="S38">
+        <f>AVERAGE(J38:J41)</f>
+        <v>6.2569175000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B39">
+        <v>12.409800000000001</v>
+      </c>
+      <c r="C39">
+        <v>6.6896000000000004</v>
+      </c>
+      <c r="D39">
+        <v>6.5041000000000002</v>
+      </c>
+      <c r="E39">
+        <v>6.3524700000000003</v>
+      </c>
+      <c r="F39">
+        <v>6.38767</v>
+      </c>
+      <c r="G39">
+        <v>6.9374700000000002</v>
+      </c>
+      <c r="H39">
+        <v>8.7751199999999994</v>
+      </c>
+      <c r="I39">
+        <v>9.7582199999999997</v>
+      </c>
+      <c r="J39">
+        <v>7.1457499999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B40">
+        <v>8.9494100000000003</v>
+      </c>
+      <c r="C40">
+        <v>4.3852200000000003</v>
+      </c>
+      <c r="D40">
+        <v>4.47532</v>
+      </c>
+      <c r="E40">
+        <v>3.89968</v>
+      </c>
+      <c r="F40">
+        <v>3.9158900000000001</v>
+      </c>
+      <c r="G40">
+        <v>3.9748100000000002</v>
+      </c>
+      <c r="H40">
+        <v>4.1187699999999996</v>
+      </c>
+      <c r="I40">
+        <v>5.6885599999999998</v>
+      </c>
+      <c r="J40">
+        <v>4.1679899999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B41">
+        <v>9.1754300000000004</v>
+      </c>
+      <c r="C41">
+        <v>5.36172</v>
+      </c>
+      <c r="D41">
+        <v>4.7970499999999996</v>
+      </c>
+      <c r="E41">
+        <v>4.4394799999999996</v>
+      </c>
+      <c r="F41">
+        <v>4.4304600000000001</v>
+      </c>
+      <c r="G41">
+        <v>4.3435800000000002</v>
+      </c>
+      <c r="H41">
+        <v>6.0323099999999998</v>
+      </c>
+      <c r="I41">
+        <v>4.3004800000000003</v>
+      </c>
+      <c r="J41">
+        <v>8.2273300000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B42">
+        <v>8.8050999999999995</v>
+      </c>
+      <c r="C42">
+        <v>4.8693900000000001</v>
+      </c>
+      <c r="D42">
+        <v>4.6775700000000002</v>
+      </c>
+      <c r="E42">
+        <v>4.11036</v>
+      </c>
+      <c r="F42">
+        <v>4.1234099999999998</v>
+      </c>
+      <c r="G42">
+        <v>3.9978699999999998</v>
+      </c>
+      <c r="H42">
+        <v>3.9137</v>
+      </c>
+      <c r="I42">
+        <v>6.2915700000000001</v>
+      </c>
+      <c r="J42">
+        <v>4.85642</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(B42:B45)</f>
+        <v>10.500897499999999</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:R42" si="11">AVERAGE(C42:C45)</f>
+        <v>5.4294624999999996</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>5.1254749999999998</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="11"/>
+        <v>4.7344425000000001</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="11"/>
+        <v>4.7928249999999997</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>4.8319349999999996</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="11"/>
+        <v>5.8101950000000002</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="11"/>
+        <v>5.9726175000000001</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(J42:J45)</f>
+        <v>6.1667725000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B43">
+        <v>13.568199999999999</v>
+      </c>
+      <c r="C43">
+        <v>6.7514399999999997</v>
+      </c>
+      <c r="D43">
+        <v>6.4607999999999999</v>
+      </c>
+      <c r="E43">
+        <v>6.5054699999999999</v>
+      </c>
+      <c r="F43">
+        <v>6.60616</v>
+      </c>
+      <c r="G43">
+        <v>6.9365500000000004</v>
+      </c>
+      <c r="H43">
+        <v>9.2843699999999991</v>
+      </c>
+      <c r="I43">
+        <v>6.3452799999999998</v>
+      </c>
+      <c r="J43">
+        <v>9.2213499999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B44">
+        <v>9.7164099999999998</v>
+      </c>
+      <c r="C44">
+        <v>4.7790800000000004</v>
+      </c>
+      <c r="D44">
+        <v>4.5731000000000002</v>
+      </c>
+      <c r="E44">
+        <v>3.88883</v>
+      </c>
+      <c r="F44">
+        <v>3.93946</v>
+      </c>
+      <c r="G44">
+        <v>3.9895399999999999</v>
+      </c>
+      <c r="H44">
+        <v>4.2229299999999999</v>
+      </c>
+      <c r="I44">
+        <v>3.93851</v>
+      </c>
+      <c r="J44">
+        <v>6.2799300000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B45">
+        <v>9.9138800000000007</v>
+      </c>
+      <c r="C45">
+        <v>5.3179400000000001</v>
+      </c>
+      <c r="D45">
+        <v>4.7904299999999997</v>
+      </c>
+      <c r="E45">
+        <v>4.4331100000000001</v>
+      </c>
+      <c r="F45">
+        <v>4.5022700000000002</v>
+      </c>
+      <c r="G45">
+        <v>4.4037800000000002</v>
+      </c>
+      <c r="H45">
+        <v>5.8197799999999997</v>
+      </c>
+      <c r="I45">
+        <v>7.3151099999999998</v>
+      </c>
+      <c r="J45">
+        <v>4.3093899999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B46">
+        <v>9.6769099999999995</v>
+      </c>
+      <c r="C46">
+        <v>4.8702800000000002</v>
+      </c>
+      <c r="D46">
+        <v>4.8606999999999996</v>
+      </c>
+      <c r="E46">
+        <v>4.1812199999999997</v>
+      </c>
+      <c r="F46">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="G46">
+        <v>3.9388399999999999</v>
+      </c>
+      <c r="H46">
+        <v>4.15557</v>
+      </c>
+      <c r="I46">
+        <v>4.1217100000000002</v>
+      </c>
+      <c r="J46">
+        <v>7.5325800000000003</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE(B46:B49)</f>
+        <v>10.840892499999999</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:R46" si="12">AVERAGE(C46:C49)</f>
+        <v>5.4659225000000005</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="12"/>
+        <v>5.1463824999999996</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="12"/>
+        <v>4.8394875000000006</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="12"/>
+        <v>4.8189950000000001</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="12"/>
+        <v>4.8088575000000002</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="12"/>
+        <v>5.7969425000000001</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="12"/>
+        <v>6.0118299999999998</v>
+      </c>
+      <c r="S46">
+        <f>AVERAGE(J46:J49)</f>
+        <v>6.32376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B47">
+        <v>13.597200000000001</v>
+      </c>
+      <c r="C47">
+        <v>6.7650199999999998</v>
+      </c>
+      <c r="D47">
+        <v>6.3517700000000001</v>
+      </c>
+      <c r="E47">
+        <v>6.6535200000000003</v>
+      </c>
+      <c r="F47">
+        <v>6.51091</v>
+      </c>
+      <c r="G47">
+        <v>6.7415000000000003</v>
+      </c>
+      <c r="H47">
+        <v>8.9702199999999994</v>
+      </c>
+      <c r="I47">
+        <v>9.7349800000000002</v>
+      </c>
+      <c r="J47">
+        <v>5.4458900000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B48">
+        <v>9.9062599999999996</v>
+      </c>
+      <c r="C48">
+        <v>4.5702800000000003</v>
+      </c>
+      <c r="D48">
+        <v>4.4728700000000003</v>
+      </c>
+      <c r="E48">
+        <v>3.9419499999999998</v>
+      </c>
+      <c r="F48">
+        <v>4.0704099999999999</v>
+      </c>
+      <c r="G48">
+        <v>3.9748999999999999</v>
+      </c>
+      <c r="H48">
+        <v>4.3345200000000004</v>
+      </c>
+      <c r="I48">
+        <v>5.7375400000000001</v>
+      </c>
+      <c r="J48">
+        <v>4.3194999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B49">
+        <v>10.183199999999999</v>
+      </c>
+      <c r="C49">
+        <v>5.6581099999999998</v>
+      </c>
+      <c r="D49">
+        <v>4.9001900000000003</v>
+      </c>
+      <c r="E49">
+        <v>4.5812600000000003</v>
+      </c>
+      <c r="F49">
+        <v>4.6316600000000001</v>
+      </c>
+      <c r="G49">
+        <v>4.58019</v>
+      </c>
+      <c r="H49">
+        <v>5.7274599999999998</v>
+      </c>
+      <c r="I49">
+        <v>4.4530900000000004</v>
+      </c>
+      <c r="J49">
+        <v>7.9970699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B50">
+        <v>10.112299999999999</v>
+      </c>
+      <c r="C50">
+        <v>5.0288199999999996</v>
+      </c>
+      <c r="D50">
+        <v>4.7932699999999997</v>
+      </c>
+      <c r="E50">
+        <v>4.65747</v>
+      </c>
+      <c r="F50">
+        <v>4.26302</v>
+      </c>
+      <c r="G50">
+        <v>4.1491699999999998</v>
+      </c>
+      <c r="H50">
+        <v>4.07517</v>
+      </c>
+      <c r="I50">
+        <v>6.1774500000000003</v>
+      </c>
+      <c r="J50">
+        <v>4.80884</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE(B50:B53)</f>
+        <v>11.01763</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:R50" si="13">AVERAGE(C50:C53)</f>
+        <v>5.5853599999999997</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="13"/>
+        <v>5.2873174999999994</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="13"/>
+        <v>5.041175</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="13"/>
+        <v>4.90252</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="13"/>
+        <v>4.9509949999999998</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="13"/>
+        <v>5.8548599999999995</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>6.0017199999999997</v>
+      </c>
+      <c r="S50">
+        <f>AVERAGE(J50:J53)</f>
+        <v>6.3377549999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B51">
+        <v>13.8004</v>
+      </c>
+      <c r="C51">
+        <v>6.5752600000000001</v>
+      </c>
+      <c r="D51">
+        <v>6.6712899999999999</v>
+      </c>
+      <c r="E51">
+        <v>6.8093599999999999</v>
+      </c>
+      <c r="F51">
+        <v>6.58432</v>
+      </c>
+      <c r="G51">
+        <v>6.9649200000000002</v>
+      </c>
+      <c r="H51">
+        <v>9.1779600000000006</v>
+      </c>
+      <c r="I51">
+        <v>6.5885100000000003</v>
+      </c>
+      <c r="J51">
+        <v>9.3902800000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B52">
+        <v>9.8439200000000007</v>
+      </c>
+      <c r="C52">
+        <v>5.17164</v>
+      </c>
+      <c r="D52">
+        <v>4.54087</v>
+      </c>
+      <c r="E52">
+        <v>3.9913699999999999</v>
+      </c>
+      <c r="F52">
+        <v>4.0841799999999999</v>
+      </c>
+      <c r="G52">
+        <v>4.1503699999999997</v>
+      </c>
+      <c r="H52">
+        <v>4.4191000000000003</v>
+      </c>
+      <c r="I52">
+        <v>4.1133100000000002</v>
+      </c>
+      <c r="J52">
+        <v>6.6208099999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B53">
+        <v>10.3139</v>
+      </c>
+      <c r="C53">
+        <v>5.5657199999999998</v>
+      </c>
+      <c r="D53">
+        <v>5.14384</v>
+      </c>
+      <c r="E53">
+        <v>4.7065000000000001</v>
+      </c>
+      <c r="F53">
+        <v>4.6785600000000001</v>
+      </c>
+      <c r="G53">
+        <v>4.5395200000000004</v>
+      </c>
+      <c r="H53">
+        <v>5.7472099999999999</v>
+      </c>
+      <c r="I53">
+        <v>7.1276099999999998</v>
+      </c>
+      <c r="J53">
+        <v>4.5310899999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B54">
+        <v>10.032400000000001</v>
+      </c>
+      <c r="C54">
+        <v>5.2184400000000002</v>
+      </c>
+      <c r="D54">
+        <v>4.8442100000000003</v>
+      </c>
+      <c r="E54">
+        <v>4.3236600000000003</v>
+      </c>
+      <c r="F54">
+        <v>4.2678399999999996</v>
+      </c>
+      <c r="G54">
+        <v>4.1911199999999997</v>
+      </c>
+      <c r="H54">
+        <v>4.0646199999999997</v>
+      </c>
+      <c r="I54">
+        <v>4.2917399999999999</v>
+      </c>
+      <c r="J54">
+        <v>7.1099699999999997</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE(B54:B57)</f>
+        <v>11.058657499999999</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54:R54" si="14">AVERAGE(C54:C57)</f>
+        <v>5.6033375000000003</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="14"/>
+        <v>5.3373100000000004</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="14"/>
+        <v>4.9561875000000004</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="14"/>
+        <v>4.8956575000000004</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="14"/>
+        <v>4.9181925</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="14"/>
+        <v>5.7288200000000007</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="14"/>
+        <v>5.8785825000000003</v>
+      </c>
+      <c r="S54">
+        <f>AVERAGE(J54:J57)</f>
+        <v>6.4609349999999992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B55">
+        <v>13.846399999999999</v>
+      </c>
+      <c r="C55">
+        <v>6.6407100000000003</v>
+      </c>
+      <c r="D55">
+        <v>6.9030500000000004</v>
+      </c>
+      <c r="E55">
+        <v>6.7068099999999999</v>
+      </c>
+      <c r="F55">
+        <v>6.6375700000000002</v>
+      </c>
+      <c r="G55">
+        <v>6.8527300000000002</v>
+      </c>
+      <c r="H55">
+        <v>8.7145600000000005</v>
+      </c>
+      <c r="I55">
+        <v>9.3460300000000007</v>
+      </c>
+      <c r="J55">
+        <v>5.8868600000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B56">
+        <v>9.8957300000000004</v>
+      </c>
+      <c r="C56">
+        <v>5.0275699999999999</v>
+      </c>
+      <c r="D56">
+        <v>4.5879599999999998</v>
+      </c>
+      <c r="E56">
+        <v>4.0905699999999996</v>
+      </c>
+      <c r="F56">
+        <v>4.1019600000000001</v>
+      </c>
+      <c r="G56">
+        <v>4.1554599999999997</v>
+      </c>
+      <c r="H56">
+        <v>4.3733899999999997</v>
+      </c>
+      <c r="I56">
+        <v>5.4976500000000001</v>
+      </c>
+      <c r="J56">
+        <v>3.9604499999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B57">
+        <v>10.460100000000001</v>
+      </c>
+      <c r="C57">
+        <v>5.5266299999999999</v>
+      </c>
+      <c r="D57">
+        <v>5.0140200000000004</v>
+      </c>
+      <c r="E57">
+        <v>4.7037100000000001</v>
+      </c>
+      <c r="F57">
+        <v>4.5752600000000001</v>
+      </c>
+      <c r="G57">
+        <v>4.4734600000000002</v>
+      </c>
+      <c r="H57">
+        <v>5.7627100000000002</v>
+      </c>
+      <c r="I57">
+        <v>4.3789100000000003</v>
+      </c>
+      <c r="J57">
+        <v>8.8864599999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B58">
+        <v>10.077400000000001</v>
+      </c>
+      <c r="C58">
+        <v>4.9114100000000001</v>
+      </c>
+      <c r="D58">
+        <v>5.0252100000000004</v>
+      </c>
+      <c r="E58">
+        <v>4.3776900000000003</v>
+      </c>
+      <c r="F58">
+        <v>4.2664600000000004</v>
+      </c>
+      <c r="G58">
+        <v>4.2764499999999996</v>
+      </c>
+      <c r="H58">
+        <v>4.1474599999999997</v>
+      </c>
+      <c r="I58">
+        <v>6.2926700000000002</v>
+      </c>
+      <c r="J58">
+        <v>5.9626799999999998</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE(B58:B61)</f>
+        <v>11.306650000000001</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:R58" si="15">AVERAGE(C58:C61)</f>
+        <v>5.5369574999999998</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="15"/>
+        <v>5.4210925000000003</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="15"/>
+        <v>5.0885449999999999</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="15"/>
+        <v>5.1784699999999999</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="15"/>
+        <v>5.0673325</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="15"/>
+        <v>5.8265299999999991</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="15"/>
+        <v>6.0132025000000002</v>
+      </c>
+      <c r="S58">
+        <f>AVERAGE(J58:J61)</f>
+        <v>6.23508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B59">
+        <v>14.158799999999999</v>
+      </c>
+      <c r="C59">
+        <v>6.5643700000000003</v>
+      </c>
+      <c r="D59">
+        <v>6.7612100000000002</v>
+      </c>
+      <c r="E59">
+        <v>6.6537699999999997</v>
+      </c>
+      <c r="F59">
+        <v>6.9455499999999999</v>
+      </c>
+      <c r="G59">
+        <v>6.9218299999999999</v>
+      </c>
+      <c r="H59">
+        <v>8.6994199999999999</v>
+      </c>
+      <c r="I59">
+        <v>6.5775899999999998</v>
+      </c>
+      <c r="J59">
+        <v>6.6867299999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B60">
+        <v>10.2431</v>
+      </c>
+      <c r="C60">
+        <v>5.1044600000000004</v>
+      </c>
+      <c r="D60">
+        <v>4.7664</v>
+      </c>
+      <c r="E60">
+        <v>4.2594599999999998</v>
+      </c>
+      <c r="F60">
+        <v>4.6544699999999999</v>
+      </c>
+      <c r="G60">
+        <v>4.2923999999999998</v>
+      </c>
+      <c r="H60">
+        <v>4.6281499999999998</v>
+      </c>
+      <c r="I60">
+        <v>4.3021000000000003</v>
+      </c>
+      <c r="J60">
+        <v>4.3853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B61">
+        <v>10.747299999999999</v>
+      </c>
+      <c r="C61">
+        <v>5.56759</v>
+      </c>
+      <c r="D61">
+        <v>5.1315499999999998</v>
+      </c>
+      <c r="E61">
+        <v>5.0632599999999996</v>
+      </c>
+      <c r="F61">
+        <v>4.8474000000000004</v>
+      </c>
+      <c r="G61">
+        <v>4.7786499999999998</v>
+      </c>
+      <c r="H61">
+        <v>5.8310899999999997</v>
+      </c>
+      <c r="I61">
+        <v>6.8804499999999997</v>
+      </c>
+      <c r="J61">
+        <v>7.9056100000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B62">
+        <v>10.154299999999999</v>
+      </c>
+      <c r="C62">
+        <v>5.0504600000000002</v>
+      </c>
+      <c r="D62">
+        <v>4.8816800000000002</v>
+      </c>
+      <c r="E62">
+        <v>4.47112</v>
+      </c>
+      <c r="F62">
+        <v>4.4963699999999998</v>
+      </c>
+      <c r="G62">
+        <v>4.3225699999999998</v>
+      </c>
+      <c r="H62">
+        <v>4.3570399999999996</v>
+      </c>
+      <c r="I62">
+        <v>4.2674599999999998</v>
+      </c>
+      <c r="J62">
+        <v>4.7653800000000004</v>
+      </c>
+      <c r="K62">
+        <f>AVERAGE(B62:B65)</f>
+        <v>11.005529999999998</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62:R62" si="16">AVERAGE(C62:C65)</f>
+        <v>5.3145849999999992</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>5.2179075000000008</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>4.9359624999999996</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="16"/>
+        <v>5.0806125</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="16"/>
+        <v>4.9779324999999996</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="16"/>
+        <v>5.6878875000000004</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="16"/>
+        <v>5.9885874999999995</v>
+      </c>
+      <c r="S62">
+        <f>AVERAGE(J62:J65)</f>
+        <v>6.2211274999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B63">
+        <v>13.853999999999999</v>
+      </c>
+      <c r="C63">
+        <v>6.4000199999999996</v>
+      </c>
+      <c r="D63">
+        <v>6.6906699999999999</v>
+      </c>
+      <c r="E63">
+        <v>6.9227600000000002</v>
+      </c>
+      <c r="F63">
+        <v>7.1020899999999996</v>
+      </c>
+      <c r="G63">
+        <v>7.1085000000000003</v>
+      </c>
+      <c r="H63">
+        <v>8.3933099999999996</v>
+      </c>
+      <c r="I63">
+        <v>9.6595800000000001</v>
+      </c>
+      <c r="J63">
+        <v>9.6770099999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B64">
+        <v>9.8512199999999996</v>
+      </c>
+      <c r="C64">
+        <v>4.6966299999999999</v>
+      </c>
+      <c r="D64">
+        <v>4.5189199999999996</v>
+      </c>
+      <c r="E64">
+        <v>3.92788</v>
+      </c>
+      <c r="F64">
+        <v>4.1510600000000002</v>
+      </c>
+      <c r="G64">
+        <v>4.1735499999999996</v>
+      </c>
+      <c r="H64">
+        <v>4.3092499999999996</v>
+      </c>
+      <c r="I64">
+        <v>5.7792399999999997</v>
+      </c>
+      <c r="J64">
+        <v>6.0678999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B65">
+        <v>10.162599999999999</v>
+      </c>
+      <c r="C65">
+        <v>5.1112299999999999</v>
+      </c>
+      <c r="D65">
+        <v>4.7803599999999999</v>
+      </c>
+      <c r="E65">
+        <v>4.4220899999999999</v>
+      </c>
+      <c r="F65">
+        <v>4.5729300000000004</v>
+      </c>
+      <c r="G65">
+        <v>4.3071099999999998</v>
+      </c>
+      <c r="H65">
+        <v>5.6919500000000003</v>
+      </c>
+      <c r="I65">
+        <v>4.2480700000000002</v>
+      </c>
+      <c r="J65">
+        <v>4.3742200000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B66">
+        <v>9.7318999999999996</v>
+      </c>
+      <c r="C66">
+        <v>4.7096499999999999</v>
+      </c>
+      <c r="D66">
+        <v>4.5858100000000004</v>
+      </c>
+      <c r="E66">
+        <v>4.21983</v>
+      </c>
+      <c r="F66">
+        <v>4.15503</v>
+      </c>
+      <c r="G66">
+        <v>4.0414500000000002</v>
+      </c>
+      <c r="H66">
+        <v>4.1800699999999997</v>
+      </c>
+      <c r="I66">
+        <v>6.6189600000000004</v>
+      </c>
+      <c r="J66">
+        <v>7.5183200000000001</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE(B66:B69)</f>
+        <v>11.023574999999999</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:R66" si="17">AVERAGE(C66:C69)</f>
+        <v>5.4155224999999998</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="17"/>
+        <v>5.049827500000001</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="17"/>
+        <v>4.7481125000000004</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="17"/>
+        <v>4.8593799999999998</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="17"/>
+        <v>4.8357250000000001</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="17"/>
+        <v>5.7082524999999995</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="17"/>
+        <v>6.0404325000000005</v>
+      </c>
+      <c r="S66">
+        <f>AVERAGE(J66:J69)</f>
+        <v>6.5157074999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="B67">
+        <v>13.7995</v>
+      </c>
+      <c r="C67">
+        <v>6.5863800000000001</v>
+      </c>
+      <c r="D67">
+        <v>6.3815900000000001</v>
+      </c>
+      <c r="E67">
+        <v>6.4466299999999999</v>
+      </c>
+      <c r="F67">
+        <v>6.6778500000000003</v>
+      </c>
+      <c r="G67">
+        <v>6.9314400000000003</v>
+      </c>
+      <c r="H67">
+        <v>8.5733899999999998</v>
+      </c>
+      <c r="I67">
+        <v>6.2938200000000002</v>
+      </c>
+      <c r="J67">
+        <v>5.6464100000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" ref="A68:A125" si="18">A67</f>
+        <v>5.88</v>
+      </c>
+      <c r="B68">
+        <v>10.110799999999999</v>
+      </c>
+      <c r="C68">
+        <v>4.8910999999999998</v>
+      </c>
+      <c r="D68">
+        <v>4.4129899999999997</v>
+      </c>
+      <c r="E68">
+        <v>3.85642</v>
+      </c>
+      <c r="F68">
+        <v>4.0797499999999998</v>
+      </c>
+      <c r="G68">
+        <v>4.0787300000000002</v>
+      </c>
+      <c r="H68">
+        <v>4.2504299999999997</v>
+      </c>
+      <c r="I68">
+        <v>4.0184899999999999</v>
+      </c>
+      <c r="J68">
+        <v>3.8130600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B69">
+        <v>10.4521</v>
+      </c>
+      <c r="C69">
+        <v>5.4749600000000003</v>
+      </c>
+      <c r="D69">
+        <v>4.8189200000000003</v>
+      </c>
+      <c r="E69">
+        <v>4.46957</v>
+      </c>
+      <c r="F69">
+        <v>4.5248900000000001</v>
+      </c>
+      <c r="G69">
+        <v>4.2912800000000004</v>
+      </c>
+      <c r="H69">
+        <v>5.8291199999999996</v>
+      </c>
+      <c r="I69">
+        <v>7.2304599999999999</v>
+      </c>
+      <c r="J69">
+        <v>9.0850399999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B70">
+        <v>10.2849</v>
+      </c>
+      <c r="C70">
+        <v>5.02813</v>
+      </c>
+      <c r="D70">
+        <v>4.6740000000000004</v>
+      </c>
+      <c r="E70">
+        <v>4.20221</v>
+      </c>
+      <c r="F70">
+        <v>4.2424099999999996</v>
+      </c>
+      <c r="G70">
+        <v>3.9825699999999999</v>
+      </c>
+      <c r="H70">
+        <v>4.0050100000000004</v>
+      </c>
+      <c r="I70">
+        <v>4.2518599999999998</v>
+      </c>
+      <c r="J70">
+        <v>6.1755300000000002</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE(B70:B73)</f>
+        <v>11.254375</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ref="L70:R70" si="19">AVERAGE(C70:C73)</f>
+        <v>5.4423050000000002</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="19"/>
+        <v>5.1548724999999997</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="19"/>
+        <v>4.8106024999999999</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="19"/>
+        <v>4.924455</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="19"/>
+        <v>4.8774350000000002</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="19"/>
+        <v>5.7203675</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="19"/>
+        <v>5.9622549999999999</v>
+      </c>
+      <c r="S70">
+        <f>AVERAGE(J70:J73)</f>
+        <v>6.3255025000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B71">
+        <v>14.055400000000001</v>
+      </c>
+      <c r="C71">
+        <v>6.6129199999999999</v>
+      </c>
+      <c r="D71">
+        <v>6.3984399999999999</v>
+      </c>
+      <c r="E71">
+        <v>6.4897200000000002</v>
+      </c>
+      <c r="F71">
+        <v>6.6157399999999997</v>
+      </c>
+      <c r="G71">
+        <v>6.7245999999999997</v>
+      </c>
+      <c r="H71">
+        <v>8.6626600000000007</v>
+      </c>
+      <c r="I71">
+        <v>9.4128699999999998</v>
+      </c>
+      <c r="J71">
+        <v>6.5271699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B72">
+        <v>10.210100000000001</v>
+      </c>
+      <c r="C72">
+        <v>4.9146799999999997</v>
+      </c>
+      <c r="D72">
+        <v>4.5237600000000002</v>
+      </c>
+      <c r="E72">
+        <v>3.9634100000000001</v>
+      </c>
+      <c r="F72">
+        <v>4.1409599999999998</v>
+      </c>
+      <c r="G72">
+        <v>4.2171200000000004</v>
+      </c>
+      <c r="H72">
+        <v>4.2763499999999999</v>
+      </c>
+      <c r="I72">
+        <v>5.6850300000000002</v>
+      </c>
+      <c r="J72">
+        <v>4.1462899999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B73">
+        <v>10.4671</v>
+      </c>
+      <c r="C73">
+        <v>5.2134900000000002</v>
+      </c>
+      <c r="D73">
+        <v>5.0232900000000003</v>
+      </c>
+      <c r="E73">
+        <v>4.5870699999999998</v>
+      </c>
+      <c r="F73">
+        <v>4.6987100000000002</v>
+      </c>
+      <c r="G73">
+        <v>4.5854499999999998</v>
+      </c>
+      <c r="H73">
+        <v>5.9374500000000001</v>
+      </c>
+      <c r="I73">
+        <v>4.4992599999999996</v>
+      </c>
+      <c r="J73">
+        <v>8.4530200000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B74">
+        <v>10.023099999999999</v>
+      </c>
+      <c r="C74">
+        <v>4.9009499999999999</v>
+      </c>
+      <c r="D74">
+        <v>4.8122699999999998</v>
+      </c>
+      <c r="E74">
+        <v>4.2377099999999999</v>
+      </c>
+      <c r="F74">
+        <v>4.3373900000000001</v>
+      </c>
+      <c r="G74">
+        <v>4.2591200000000002</v>
+      </c>
+      <c r="H74">
+        <v>4.2238899999999999</v>
+      </c>
+      <c r="I74">
+        <v>6.0525099999999998</v>
+      </c>
+      <c r="J74">
+        <v>5.4432400000000003</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE(B74:B77)</f>
+        <v>10.658032499999999</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74:R74" si="20">AVERAGE(C74:C77)</f>
+        <v>5.3448074999999999</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="20"/>
+        <v>5.14961</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="20"/>
+        <v>4.7190325</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="20"/>
+        <v>4.9042200000000005</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="20"/>
+        <v>4.9380649999999999</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="20"/>
+        <v>5.6398224999999993</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="20"/>
+        <v>5.8705999999999996</v>
+      </c>
+      <c r="S74">
+        <f>AVERAGE(J74:J77)</f>
+        <v>6.2082949999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B75">
+        <v>13.5871</v>
+      </c>
+      <c r="C75">
+        <v>6.5709299999999997</v>
+      </c>
+      <c r="D75">
+        <v>6.3473300000000004</v>
+      </c>
+      <c r="E75">
+        <v>6.4409599999999996</v>
+      </c>
+      <c r="F75">
+        <v>6.6218700000000004</v>
+      </c>
+      <c r="G75">
+        <v>6.9677300000000004</v>
+      </c>
+      <c r="H75">
+        <v>8.3042400000000001</v>
+      </c>
+      <c r="I75">
+        <v>6.4521699999999997</v>
+      </c>
+      <c r="J75">
+        <v>6.9196299999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B76">
+        <v>9.3714600000000008</v>
+      </c>
+      <c r="C76">
+        <v>4.5815599999999996</v>
+      </c>
+      <c r="D76">
+        <v>4.4459</v>
+      </c>
+      <c r="E76">
+        <v>3.7772700000000001</v>
+      </c>
+      <c r="F76">
+        <v>4.0009100000000002</v>
+      </c>
+      <c r="G76">
+        <v>4.0877999999999997</v>
+      </c>
+      <c r="H76">
+        <v>4.1477500000000003</v>
+      </c>
+      <c r="I76">
+        <v>4.1899499999999996</v>
+      </c>
+      <c r="J76">
+        <v>4.0685200000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B77">
+        <v>9.6504700000000003</v>
+      </c>
+      <c r="C77">
+        <v>5.3257899999999996</v>
+      </c>
+      <c r="D77">
+        <v>4.9929399999999999</v>
+      </c>
+      <c r="E77">
+        <v>4.4201899999999998</v>
+      </c>
+      <c r="F77">
+        <v>4.6567100000000003</v>
+      </c>
+      <c r="G77">
+        <v>4.4376100000000003</v>
+      </c>
+      <c r="H77">
+        <v>5.8834099999999996</v>
+      </c>
+      <c r="I77">
+        <v>6.7877700000000001</v>
+      </c>
+      <c r="J77">
+        <v>8.4017900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B78">
+        <v>9.2214399999999994</v>
+      </c>
+      <c r="C78">
+        <v>4.6615399999999996</v>
+      </c>
+      <c r="D78">
+        <v>4.43</v>
+      </c>
+      <c r="E78">
+        <v>4.02529</v>
+      </c>
+      <c r="F78">
+        <v>4.03918</v>
+      </c>
+      <c r="G78">
+        <v>3.8864899999999998</v>
+      </c>
+      <c r="H78">
+        <v>3.92455</v>
+      </c>
+      <c r="I78">
+        <v>4.1168399999999998</v>
+      </c>
+      <c r="J78">
+        <v>5.1890400000000003</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE(B78:B81)</f>
+        <v>10.321797500000001</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:R78" si="21">AVERAGE(C78:C81)</f>
+        <v>5.2749125000000001</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="21"/>
+        <v>4.8762024999999998</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="21"/>
+        <v>4.5950750000000005</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="21"/>
+        <v>4.6881424999999997</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="21"/>
+        <v>4.8443299999999994</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="21"/>
+        <v>5.6431549999999993</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="21"/>
+        <v>5.8905649999999996</v>
+      </c>
+      <c r="S78">
+        <f>AVERAGE(J78:J81)</f>
+        <v>6.1361249999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B79">
+        <v>12.8292</v>
+      </c>
+      <c r="C79">
+        <v>6.5292399999999997</v>
+      </c>
+      <c r="D79">
+        <v>5.9671500000000002</v>
+      </c>
+      <c r="E79">
+        <v>6.21408</v>
+      </c>
+      <c r="F79">
+        <v>6.3681000000000001</v>
+      </c>
+      <c r="G79">
+        <v>7.0587099999999996</v>
+      </c>
+      <c r="H79">
+        <v>8.7155500000000004</v>
+      </c>
+      <c r="I79">
+        <v>9.5582899999999995</v>
+      </c>
+      <c r="J79">
+        <v>7.8738299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B80">
+        <v>9.3783999999999992</v>
+      </c>
+      <c r="C80">
+        <v>4.53315</v>
+      </c>
+      <c r="D80">
+        <v>4.34483</v>
+      </c>
+      <c r="E80">
+        <v>3.7823600000000002</v>
+      </c>
+      <c r="F80">
+        <v>3.9952100000000002</v>
+      </c>
+      <c r="G80">
+        <v>4.1211099999999998</v>
+      </c>
+      <c r="H80">
+        <v>4.2478999999999996</v>
+      </c>
+      <c r="I80">
+        <v>5.6234000000000002</v>
+      </c>
+      <c r="J80">
+        <v>4.6896800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B81">
+        <v>9.8581500000000002</v>
+      </c>
+      <c r="C81">
+        <v>5.3757200000000003</v>
+      </c>
+      <c r="D81">
+        <v>4.7628300000000001</v>
+      </c>
+      <c r="E81">
+        <v>4.3585700000000003</v>
+      </c>
+      <c r="F81">
+        <v>4.3500800000000002</v>
+      </c>
+      <c r="G81">
+        <v>4.3110099999999996</v>
+      </c>
+      <c r="H81">
+        <v>5.6846199999999998</v>
+      </c>
+      <c r="I81">
+        <v>4.2637299999999998</v>
+      </c>
+      <c r="J81">
+        <v>6.7919499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B82">
+        <v>9.1406200000000002</v>
+      </c>
+      <c r="C82">
+        <v>4.7564700000000002</v>
+      </c>
+      <c r="D82">
+        <v>4.4440900000000001</v>
+      </c>
+      <c r="E82">
+        <v>4.0447699999999998</v>
+      </c>
+      <c r="F82">
+        <v>4.1340700000000004</v>
+      </c>
+      <c r="G82">
+        <v>3.9678200000000001</v>
+      </c>
+      <c r="H82">
+        <v>3.99661</v>
+      </c>
+      <c r="I82">
+        <v>6.3553899999999999</v>
+      </c>
+      <c r="J82">
+        <v>4.3423100000000003</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE(B82:B85)</f>
+        <v>10.128489999999999</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:R82" si="22">AVERAGE(C82:C85)</f>
+        <v>5.3412850000000001</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="22"/>
+        <v>4.8633224999999998</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="22"/>
+        <v>4.5633599999999994</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="22"/>
+        <v>4.8529375000000003</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="22"/>
+        <v>4.7822674999999997</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="22"/>
+        <v>5.6057974999999995</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="22"/>
+        <v>6.0290324999999996</v>
+      </c>
+      <c r="S82">
+        <f>AVERAGE(J82:J85)</f>
+        <v>6.8030624999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B83">
+        <v>12.4137</v>
+      </c>
+      <c r="C83">
+        <v>6.5296799999999999</v>
+      </c>
+      <c r="D83">
+        <v>5.8963999999999999</v>
+      </c>
+      <c r="E83">
+        <v>5.9504599999999996</v>
+      </c>
+      <c r="F83">
+        <v>6.4546200000000002</v>
+      </c>
+      <c r="G83">
+        <v>6.52447</v>
+      </c>
+      <c r="H83">
+        <v>8.3870100000000001</v>
+      </c>
+      <c r="I83">
+        <v>6.0438000000000001</v>
+      </c>
+      <c r="J83">
+        <v>10.376099999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B84">
+        <v>9.2545000000000002</v>
+      </c>
+      <c r="C84">
+        <v>4.6315600000000003</v>
+      </c>
+      <c r="D84">
+        <v>4.3517400000000004</v>
+      </c>
+      <c r="E84">
+        <v>3.8049200000000001</v>
+      </c>
+      <c r="F84">
+        <v>4.1492000000000004</v>
+      </c>
+      <c r="G84">
+        <v>4.0559500000000002</v>
+      </c>
+      <c r="H84">
+        <v>4.2046000000000001</v>
+      </c>
+      <c r="I84">
+        <v>3.9692500000000002</v>
+      </c>
+      <c r="J84">
+        <v>4.0005899999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B85">
+        <v>9.7051400000000001</v>
+      </c>
+      <c r="C85">
+        <v>5.4474299999999998</v>
+      </c>
+      <c r="D85">
+        <v>4.7610599999999996</v>
+      </c>
+      <c r="E85">
+        <v>4.45329</v>
+      </c>
+      <c r="F85">
+        <v>4.6738600000000003</v>
+      </c>
+      <c r="G85">
+        <v>4.5808299999999997</v>
+      </c>
+      <c r="H85">
+        <v>5.8349700000000002</v>
+      </c>
+      <c r="I85">
+        <v>7.7476900000000004</v>
+      </c>
+      <c r="J85">
+        <v>8.4932499999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B86">
+        <v>9.5601199999999995</v>
+      </c>
+      <c r="C86">
+        <v>5.0411799999999998</v>
+      </c>
+      <c r="D86">
+        <v>4.7719800000000001</v>
+      </c>
+      <c r="E86">
+        <v>4.0866600000000002</v>
+      </c>
+      <c r="F86">
+        <v>4.42178</v>
+      </c>
+      <c r="G86">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="H86">
+        <v>4.1115000000000004</v>
+      </c>
+      <c r="I86">
+        <v>4.4710599999999996</v>
+      </c>
+      <c r="J86">
+        <v>5.5771600000000001</v>
+      </c>
+      <c r="K86">
+        <f>AVERAGE(B86:B89)</f>
+        <v>10.708065</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86:R86" si="23">AVERAGE(C86:C89)</f>
+        <v>5.4780224999999998</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="23"/>
+        <v>5.0456850000000006</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="23"/>
+        <v>4.6941999999999995</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="23"/>
+        <v>4.9537125</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="23"/>
+        <v>4.8722050000000001</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="23"/>
+        <v>5.6814800000000005</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="23"/>
+        <v>5.8723299999999998</v>
+      </c>
+      <c r="S86">
+        <f>AVERAGE(J86:J89)</f>
+        <v>6.2600974999999988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B87">
+        <v>13.2926</v>
+      </c>
+      <c r="C87">
+        <v>6.6542399999999997</v>
+      </c>
+      <c r="D87">
+        <v>6.2617500000000001</v>
+      </c>
+      <c r="E87">
+        <v>6.2245299999999997</v>
+      </c>
+      <c r="F87">
+        <v>6.5327200000000003</v>
+      </c>
+      <c r="G87">
+        <v>6.6160300000000003</v>
+      </c>
+      <c r="H87">
+        <v>8.4714600000000004</v>
+      </c>
+      <c r="I87">
+        <v>9.02318</v>
+      </c>
+      <c r="J87">
+        <v>6.7730800000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B88">
+        <v>9.9594400000000007</v>
+      </c>
+      <c r="C88">
+        <v>4.7099000000000002</v>
+      </c>
+      <c r="D88">
+        <v>4.3905900000000004</v>
+      </c>
+      <c r="E88">
+        <v>3.9187599999999998</v>
+      </c>
+      <c r="F88">
+        <v>4.2300199999999997</v>
+      </c>
+      <c r="G88">
+        <v>4.1505900000000002</v>
+      </c>
+      <c r="H88">
+        <v>4.3262700000000001</v>
+      </c>
+      <c r="I88">
+        <v>5.4235300000000004</v>
+      </c>
+      <c r="J88">
+        <v>4.1885899999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B89">
+        <v>10.020099999999999</v>
+      </c>
+      <c r="C89">
+        <v>5.5067700000000004</v>
+      </c>
+      <c r="D89">
+        <v>4.7584200000000001</v>
+      </c>
+      <c r="E89">
+        <v>4.5468500000000001</v>
+      </c>
+      <c r="F89">
+        <v>4.6303299999999998</v>
+      </c>
+      <c r="G89">
+        <v>4.5152000000000001</v>
+      </c>
+      <c r="H89">
+        <v>5.8166900000000004</v>
+      </c>
+      <c r="I89">
+        <v>4.5715500000000002</v>
+      </c>
+      <c r="J89">
+        <v>8.5015599999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B90">
+        <v>9.8633000000000006</v>
+      </c>
+      <c r="C90">
+        <v>4.9813400000000003</v>
+      </c>
+      <c r="D90">
+        <v>4.6394900000000003</v>
+      </c>
+      <c r="E90">
+        <v>4.2706600000000003</v>
+      </c>
+      <c r="F90">
+        <v>4.4808300000000001</v>
+      </c>
+      <c r="G90">
+        <v>4.3688399999999996</v>
+      </c>
+      <c r="H90">
+        <v>4.3439199999999998</v>
+      </c>
+      <c r="I90">
+        <v>5.9591399999999997</v>
+      </c>
+      <c r="J90">
+        <v>5.6589400000000003</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE(B90:B93)</f>
+        <v>10.99935</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90:R90" si="24">AVERAGE(C90:C93)</f>
+        <v>5.3601625000000004</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="24"/>
+        <v>4.9559924999999998</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="24"/>
+        <v>4.7878100000000003</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="24"/>
+        <v>5.0511999999999997</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="24"/>
+        <v>4.9931200000000002</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="24"/>
+        <v>5.6578674999999992</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="24"/>
+        <v>5.9353824999999993</v>
+      </c>
+      <c r="S90">
+        <f>AVERAGE(J90:J93)</f>
+        <v>6.1967575000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B91">
+        <v>13.1935</v>
+      </c>
+      <c r="C91">
+        <v>6.4373800000000001</v>
+      </c>
+      <c r="D91">
+        <v>6.1359399999999997</v>
+      </c>
+      <c r="E91">
+        <v>6.4440099999999996</v>
+      </c>
+      <c r="F91">
+        <v>6.8371899999999997</v>
+      </c>
+      <c r="G91">
+        <v>6.8621600000000003</v>
+      </c>
+      <c r="H91">
+        <v>8.0749499999999994</v>
+      </c>
+      <c r="I91">
+        <v>6.56203</v>
+      </c>
+      <c r="J91">
+        <v>6.6664700000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B92">
+        <v>10.3771</v>
+      </c>
+      <c r="C92">
+        <v>4.7674599999999998</v>
+      </c>
+      <c r="D92">
+        <v>4.3940700000000001</v>
+      </c>
+      <c r="E92">
+        <v>3.9811299999999998</v>
+      </c>
+      <c r="F92">
+        <v>4.2301299999999999</v>
+      </c>
+      <c r="G92">
+        <v>4.22722</v>
+      </c>
+      <c r="H92">
+        <v>4.2669199999999998</v>
+      </c>
+      <c r="I92">
+        <v>4.2646100000000002</v>
+      </c>
+      <c r="J92">
+        <v>4.3654299999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B93">
+        <v>10.563499999999999</v>
+      </c>
+      <c r="C93">
+        <v>5.2544700000000004</v>
+      </c>
+      <c r="D93">
+        <v>4.6544699999999999</v>
+      </c>
+      <c r="E93">
+        <v>4.4554400000000003</v>
+      </c>
+      <c r="F93">
+        <v>4.65665</v>
+      </c>
+      <c r="G93">
+        <v>4.5142600000000002</v>
+      </c>
+      <c r="H93">
+        <v>5.9456800000000003</v>
+      </c>
+      <c r="I93">
+        <v>6.9557500000000001</v>
+      </c>
+      <c r="J93">
+        <v>8.09619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B94">
+        <v>9.7370900000000002</v>
+      </c>
+      <c r="C94">
+        <v>4.7981999999999996</v>
+      </c>
+      <c r="D94">
+        <v>4.1802400000000004</v>
+      </c>
+      <c r="E94">
+        <v>4.0576800000000004</v>
+      </c>
+      <c r="F94">
+        <v>4.1617499999999996</v>
+      </c>
+      <c r="G94">
+        <v>4.03965</v>
+      </c>
+      <c r="H94">
+        <v>4.0303000000000004</v>
+      </c>
+      <c r="I94">
+        <v>4.17143</v>
+      </c>
+      <c r="J94">
+        <v>4.9079100000000002</v>
+      </c>
+      <c r="K94">
+        <f>AVERAGE(B94:B97)</f>
+        <v>11.436147500000001</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ref="L94:R94" si="25">AVERAGE(C94:C97)</f>
+        <v>5.4340174999999995</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="25"/>
+        <v>4.6488999999999994</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="25"/>
+        <v>4.7663250000000001</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="25"/>
+        <v>4.9959699999999998</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="25"/>
+        <v>5.0042349999999995</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.9034550000000001</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="25"/>
+        <v>6.1946124999999999</v>
+      </c>
+      <c r="S94">
+        <f>AVERAGE(J94:J97)</f>
+        <v>6.3334924999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B95">
+        <v>14.4704</v>
+      </c>
+      <c r="C95">
+        <v>6.6020000000000003</v>
+      </c>
+      <c r="D95">
+        <v>5.6837999999999997</v>
+      </c>
+      <c r="E95">
+        <v>6.4189400000000001</v>
+      </c>
+      <c r="F95">
+        <v>6.8485199999999997</v>
+      </c>
+      <c r="G95">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="H95">
+        <v>9.0528700000000004</v>
+      </c>
+      <c r="I95">
+        <v>9.9222699999999993</v>
+      </c>
+      <c r="J95">
+        <v>9.1989800000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B96">
+        <v>10.322100000000001</v>
+      </c>
+      <c r="C96">
+        <v>4.6810999999999998</v>
+      </c>
+      <c r="D96">
+        <v>4.17469</v>
+      </c>
+      <c r="E96">
+        <v>3.90855</v>
+      </c>
+      <c r="F96">
+        <v>4.2368800000000002</v>
+      </c>
+      <c r="G96">
+        <v>4.2441000000000004</v>
+      </c>
+      <c r="H96">
+        <v>4.3996500000000003</v>
+      </c>
+      <c r="I96">
+        <v>6.1159600000000003</v>
+      </c>
+      <c r="J96">
+        <v>6.5626499999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B97">
+        <v>11.215</v>
+      </c>
+      <c r="C97">
+        <v>5.6547700000000001</v>
+      </c>
+      <c r="D97">
+        <v>4.55687</v>
+      </c>
+      <c r="E97">
+        <v>4.6801300000000001</v>
+      </c>
+      <c r="F97">
+        <v>4.7367299999999997</v>
+      </c>
+      <c r="G97">
+        <v>4.73719</v>
+      </c>
+      <c r="H97">
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="I97">
+        <v>4.5687899999999999</v>
+      </c>
+      <c r="J97">
+        <v>4.6644300000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B98">
+        <v>10.394600000000001</v>
+      </c>
+      <c r="C98">
+        <v>5.0810899999999997</v>
+      </c>
+      <c r="D98">
+        <v>4.4819100000000001</v>
+      </c>
+      <c r="E98">
+        <v>4.3498999999999999</v>
+      </c>
+      <c r="F98">
+        <v>4.4260599999999997</v>
+      </c>
+      <c r="G98">
+        <v>4.4223299999999997</v>
+      </c>
+      <c r="H98">
+        <v>4.4884000000000004</v>
+      </c>
+      <c r="I98">
+        <v>6.1930899999999998</v>
+      </c>
+      <c r="J98">
+        <v>7.0444300000000002</v>
+      </c>
+      <c r="K98">
+        <f>AVERAGE(B98:B101)</f>
+        <v>10.92595</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ref="L98:R98" si="26">AVERAGE(C98:C101)</f>
+        <v>5.5131424999999998</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="26"/>
+        <v>4.8094099999999997</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="26"/>
+        <v>5.01694</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="26"/>
+        <v>5.1404224999999997</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="26"/>
+        <v>5.2204224999999997</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="26"/>
+        <v>5.8475650000000003</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>6.1482025</v>
+      </c>
+      <c r="S98">
+        <f>AVERAGE(J98:J101)</f>
+        <v>6.5543999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B99">
+        <v>13.831799999999999</v>
+      </c>
+      <c r="C99">
+        <v>6.8359500000000004</v>
+      </c>
+      <c r="D99">
+        <v>6.0339700000000001</v>
+      </c>
+      <c r="E99">
+        <v>6.9896099999999999</v>
+      </c>
+      <c r="F99">
+        <v>7.2037300000000002</v>
+      </c>
+      <c r="G99">
+        <v>7.51248</v>
+      </c>
+      <c r="H99">
+        <v>8.6534099999999992</v>
+      </c>
+      <c r="I99">
+        <v>7.0405699999999998</v>
+      </c>
+      <c r="J99">
+        <v>6.3651299999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B100">
+        <v>9.4914000000000005</v>
+      </c>
+      <c r="C100">
+        <v>4.8695700000000004</v>
+      </c>
+      <c r="D100">
+        <v>4.2784399999999998</v>
+      </c>
+      <c r="E100">
+        <v>4.0083900000000003</v>
+      </c>
+      <c r="F100">
+        <v>4.2836999999999996</v>
+      </c>
+      <c r="G100">
+        <v>4.3312099999999996</v>
+      </c>
+      <c r="H100">
+        <v>4.4949899999999996</v>
+      </c>
+      <c r="I100">
+        <v>4.2999299999999998</v>
+      </c>
+      <c r="J100">
+        <v>4.2183200000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B101">
+        <v>9.9860000000000007</v>
+      </c>
+      <c r="C101">
+        <v>5.2659599999999998</v>
+      </c>
+      <c r="D101">
+        <v>4.4433199999999999</v>
+      </c>
+      <c r="E101">
+        <v>4.7198599999999997</v>
+      </c>
+      <c r="F101">
+        <v>4.6482000000000001</v>
+      </c>
+      <c r="G101">
+        <v>4.6156699999999997</v>
+      </c>
+      <c r="H101">
+        <v>5.7534599999999996</v>
+      </c>
+      <c r="I101">
+        <v>7.0592199999999998</v>
+      </c>
+      <c r="J101">
+        <v>8.5897199999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B102">
+        <v>9.4783000000000008</v>
+      </c>
+      <c r="C102">
+        <v>4.8170700000000002</v>
+      </c>
+      <c r="D102">
+        <v>4.3122800000000003</v>
+      </c>
+      <c r="E102">
+        <v>4.4649400000000004</v>
+      </c>
+      <c r="F102">
+        <v>4.2294299999999998</v>
+      </c>
+      <c r="G102">
+        <v>4.1353400000000002</v>
+      </c>
+      <c r="H102">
+        <v>4.1353799999999996</v>
+      </c>
+      <c r="I102">
+        <v>4.2748900000000001</v>
+      </c>
+      <c r="J102">
+        <v>5.8149600000000001</v>
+      </c>
+      <c r="K102">
+        <f>AVERAGE(B102:B105)</f>
+        <v>10.5679325</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ref="L102:R102" si="27">AVERAGE(C102:C105)</f>
+        <v>5.4370799999999999</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="27"/>
+        <v>4.6903274999999995</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="27"/>
+        <v>5.0414950000000003</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="27"/>
+        <v>5.0431800000000004</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="27"/>
+        <v>5.0979375000000005</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="27"/>
+        <v>5.8588025000000004</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="27"/>
+        <v>6.2750925000000004</v>
+      </c>
+      <c r="S102">
+        <f>AVERAGE(J102:J105)</f>
+        <v>6.3304450000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B103">
+        <v>13.825799999999999</v>
+      </c>
+      <c r="C103">
+        <v>7.0530999999999997</v>
+      </c>
+      <c r="D103">
+        <v>6.0366400000000002</v>
+      </c>
+      <c r="E103">
+        <v>7.2143300000000004</v>
+      </c>
+      <c r="F103">
+        <v>7.3598699999999999</v>
+      </c>
+      <c r="G103">
+        <v>7.6166900000000002</v>
+      </c>
+      <c r="H103">
+        <v>9.4086999999999996</v>
+      </c>
+      <c r="I103">
+        <v>10.123900000000001</v>
+      </c>
+      <c r="J103">
+        <v>7.5666500000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B104">
+        <v>9.40334</v>
+      </c>
+      <c r="C104">
+        <v>4.6365499999999997</v>
+      </c>
+      <c r="D104">
+        <v>4.1268900000000004</v>
+      </c>
+      <c r="E104">
+        <v>4.0812999999999997</v>
+      </c>
+      <c r="F104">
+        <v>4.1753200000000001</v>
+      </c>
+      <c r="G104">
+        <v>4.2707499999999996</v>
+      </c>
+      <c r="H104">
+        <v>4.70404</v>
+      </c>
+      <c r="I104">
+        <v>6.34694</v>
+      </c>
+      <c r="J104">
+        <v>4.5241699999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B105">
+        <v>9.5642899999999997</v>
+      </c>
+      <c r="C105">
+        <v>5.2416</v>
+      </c>
+      <c r="D105">
+        <v>4.2854999999999999</v>
+      </c>
+      <c r="E105">
+        <v>4.4054099999999998</v>
+      </c>
+      <c r="F105">
+        <v>4.4081000000000001</v>
+      </c>
+      <c r="G105">
+        <v>4.36897</v>
+      </c>
+      <c r="H105">
+        <v>5.1870900000000004</v>
+      </c>
+      <c r="I105">
+        <v>4.3546399999999998</v>
+      </c>
+      <c r="J105">
+        <v>7.4160000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B106">
+        <v>9.5507500000000007</v>
+      </c>
+      <c r="C106">
+        <v>4.6750600000000002</v>
+      </c>
+      <c r="D106">
+        <v>4.1577700000000002</v>
+      </c>
+      <c r="E106">
+        <v>4.1675500000000003</v>
+      </c>
+      <c r="F106">
+        <v>4.0740999999999996</v>
+      </c>
+      <c r="G106">
+        <v>4.1306500000000002</v>
+      </c>
+      <c r="H106">
+        <v>4.1506400000000001</v>
+      </c>
+      <c r="I106">
+        <v>6.1631900000000002</v>
+      </c>
+      <c r="J106">
+        <v>4.2514700000000003</v>
+      </c>
+      <c r="K106">
+        <f>AVERAGE(B106:B109)</f>
+        <v>10.568267500000001</v>
+      </c>
+      <c r="L106">
+        <f t="shared" ref="L106:R106" si="28">AVERAGE(C106:C109)</f>
+        <v>5.3066449999999996</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="28"/>
+        <v>4.50976</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="28"/>
+        <v>4.8447224999999996</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="28"/>
+        <v>4.9916349999999996</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="28"/>
+        <v>5.1270600000000002</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="28"/>
+        <v>5.9158600000000003</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="28"/>
+        <v>6.0473350000000003</v>
+      </c>
+      <c r="S106">
+        <f>AVERAGE(J106:J109)</f>
+        <v>6.3935337499999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B107">
+        <v>14.1112</v>
+      </c>
+      <c r="C107">
+        <v>7.12608</v>
+      </c>
+      <c r="D107">
+        <v>5.9224699999999997</v>
+      </c>
+      <c r="E107">
+        <v>7.1143000000000001</v>
+      </c>
+      <c r="F107">
+        <v>7.41709</v>
+      </c>
+      <c r="G107">
+        <v>7.9533100000000001</v>
+      </c>
+      <c r="H107">
+        <v>9.6234400000000004</v>
+      </c>
+      <c r="I107">
+        <v>6.9723800000000002</v>
+      </c>
+      <c r="J107">
+        <v>11.911899999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B108">
+        <v>9.35745</v>
+      </c>
+      <c r="C108">
+        <v>4.3900399999999999</v>
+      </c>
+      <c r="D108">
+        <v>3.9678</v>
+      </c>
+      <c r="E108">
+        <v>3.8489200000000001</v>
+      </c>
+      <c r="F108">
+        <v>4.0663600000000004</v>
+      </c>
+      <c r="G108">
+        <v>4.1476800000000003</v>
+      </c>
+      <c r="H108">
+        <v>4.3868200000000002</v>
+      </c>
+      <c r="I108">
+        <v>3.9820899999999999</v>
+      </c>
+      <c r="J108">
+        <v>0.65958499999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B109">
+        <v>9.2536699999999996</v>
+      </c>
+      <c r="C109">
+        <v>5.0354000000000001</v>
+      </c>
+      <c r="D109">
+        <v>3.9910000000000001</v>
+      </c>
+      <c r="E109">
+        <v>4.2481200000000001</v>
+      </c>
+      <c r="F109">
+        <v>4.4089900000000002</v>
+      </c>
+      <c r="G109">
+        <v>4.2766000000000002</v>
+      </c>
+      <c r="H109">
+        <v>5.5025399999999998</v>
+      </c>
+      <c r="I109">
+        <v>7.0716799999999997</v>
+      </c>
+      <c r="J109">
+        <v>8.7511799999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B110">
+        <v>8.9918999999999993</v>
+      </c>
+      <c r="C110">
+        <v>4.5553699999999999</v>
+      </c>
+      <c r="D110">
+        <v>3.9846200000000001</v>
+      </c>
+      <c r="E110">
+        <v>3.9709400000000001</v>
+      </c>
+      <c r="F110">
+        <v>3.9948800000000002</v>
+      </c>
+      <c r="G110">
+        <v>3.96401</v>
+      </c>
+      <c r="H110">
+        <v>3.9142100000000002</v>
+      </c>
+      <c r="I110">
+        <v>3.8877299999999999</v>
+      </c>
+      <c r="J110">
+        <v>5.5448000000000004</v>
+      </c>
+      <c r="K110">
+        <f>AVERAGE(B110:B113)</f>
+        <v>10.736239999999999</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110:R110" si="29">AVERAGE(C110:C113)</f>
+        <v>5.3564300000000005</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="29"/>
+        <v>4.5303649999999998</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="29"/>
+        <v>4.9044799999999995</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="29"/>
+        <v>5.0424749999999996</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="29"/>
+        <v>5.2807850000000007</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="29"/>
+        <v>6.1454500000000003</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="29"/>
+        <v>6.7521500000000003</v>
+      </c>
+      <c r="S110">
+        <f>AVERAGE(J110:J113)</f>
+        <v>6.1804375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B111">
+        <v>14.8809</v>
+      </c>
+      <c r="C111">
+        <v>7.3334900000000003</v>
+      </c>
+      <c r="D111">
+        <v>5.96434</v>
+      </c>
+      <c r="E111">
+        <v>7.2277300000000002</v>
+      </c>
+      <c r="F111">
+        <v>7.5115499999999997</v>
+      </c>
+      <c r="G111">
+        <v>8.5113800000000008</v>
+      </c>
+      <c r="H111">
+        <v>10.692</v>
+      </c>
+      <c r="I111">
+        <v>11.7735</v>
+      </c>
+      <c r="J111">
+        <v>8.5213800000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B112">
+        <v>9.1863299999999999</v>
+      </c>
+      <c r="C112">
+        <v>4.3824800000000002</v>
+      </c>
+      <c r="D112">
+        <v>3.9733100000000001</v>
+      </c>
+      <c r="E112">
+        <v>3.9781900000000001</v>
+      </c>
+      <c r="F112">
+        <v>4.0450100000000004</v>
+      </c>
+      <c r="G112">
+        <v>4.1408399999999999</v>
+      </c>
+      <c r="H112">
+        <v>5.2520800000000003</v>
+      </c>
+      <c r="I112">
+        <v>3.8170999999999999</v>
+      </c>
+      <c r="J112">
+        <v>5.5203100000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B113">
+        <v>9.8858300000000003</v>
+      </c>
+      <c r="C113">
+        <v>5.1543799999999997</v>
+      </c>
+      <c r="D113">
+        <v>4.1991899999999998</v>
+      </c>
+      <c r="E113">
+        <v>4.4410600000000002</v>
+      </c>
+      <c r="F113">
+        <v>4.6184599999999998</v>
+      </c>
+      <c r="G113">
+        <v>4.5069100000000004</v>
+      </c>
+      <c r="H113">
+        <v>4.7235100000000001</v>
+      </c>
+      <c r="I113">
+        <v>7.5302699999999998</v>
+      </c>
+      <c r="J113">
+        <v>5.1352599999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B114">
+        <v>9.7134699999999992</v>
+      </c>
+      <c r="C114">
+        <v>4.6492399999999998</v>
+      </c>
+      <c r="D114">
+        <v>4.0916899999999998</v>
+      </c>
+      <c r="E114">
+        <v>4.3689299999999998</v>
+      </c>
+      <c r="F114">
+        <v>4.31799</v>
+      </c>
+      <c r="G114">
+        <v>4.2168299999999999</v>
+      </c>
+      <c r="H114">
+        <v>4.9954799999999997</v>
+      </c>
+      <c r="I114">
+        <v>4.1000300000000003</v>
+      </c>
+      <c r="J114">
+        <v>5.6125100000000003</v>
+      </c>
+      <c r="K114">
+        <f>AVERAGE(B114:B117)</f>
+        <v>11.1804825</v>
+      </c>
+      <c r="L114">
+        <f t="shared" ref="L114:R114" si="30">AVERAGE(C114:C117)</f>
+        <v>5.3650774999999999</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="30"/>
+        <v>4.5162099999999992</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="30"/>
+        <v>5.2499650000000004</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="30"/>
+        <v>5.160895</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="30"/>
+        <v>5.2731874999999997</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="30"/>
+        <v>6.0575025</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="30"/>
+        <v>6.8194125000000003</v>
+      </c>
+      <c r="S114">
+        <f>AVERAGE(J114:J117)</f>
+        <v>6.0964074999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B115">
+        <v>15.4003</v>
+      </c>
+      <c r="C115">
+        <v>7.4068300000000002</v>
+      </c>
+      <c r="D115">
+        <v>6.0902900000000004</v>
+      </c>
+      <c r="E115">
+        <v>7.6798299999999999</v>
+      </c>
+      <c r="F115">
+        <v>7.8868900000000002</v>
+      </c>
+      <c r="G115">
+        <v>8.4390499999999999</v>
+      </c>
+      <c r="H115">
+        <v>8.9616100000000003</v>
+      </c>
+      <c r="I115">
+        <v>11.798400000000001</v>
+      </c>
+      <c r="J115">
+        <v>8.6970299999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B116">
+        <v>9.7000299999999999</v>
+      </c>
+      <c r="C116">
+        <v>4.3453400000000002</v>
+      </c>
+      <c r="D116">
+        <v>3.8774600000000001</v>
+      </c>
+      <c r="E116">
+        <v>4.55314</v>
+      </c>
+      <c r="F116">
+        <v>4.0617799999999997</v>
+      </c>
+      <c r="G116">
+        <v>4.0800999999999998</v>
+      </c>
+      <c r="H116">
+        <v>4.0842900000000002</v>
+      </c>
+      <c r="I116">
+        <v>3.54976</v>
+      </c>
+      <c r="J116">
+        <v>5.5448000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B117">
+        <v>9.9081299999999999</v>
+      </c>
+      <c r="C117">
+        <v>5.0589000000000004</v>
+      </c>
+      <c r="D117">
+        <v>4.0053999999999998</v>
+      </c>
+      <c r="E117">
+        <v>4.3979600000000003</v>
+      </c>
+      <c r="F117">
+        <v>4.3769200000000001</v>
+      </c>
+      <c r="G117">
+        <v>4.35677</v>
+      </c>
+      <c r="H117">
+        <v>6.1886299999999999</v>
+      </c>
+      <c r="I117">
+        <v>7.8294600000000001</v>
+      </c>
+      <c r="J117">
+        <v>4.5312900000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B118">
+        <v>10.923</v>
+      </c>
+      <c r="C118">
+        <v>4.5005499999999996</v>
+      </c>
+      <c r="D118">
+        <v>3.9128099999999999</v>
+      </c>
+      <c r="E118">
+        <v>3.9978199999999999</v>
+      </c>
+      <c r="F118">
+        <v>4.0260699999999998</v>
+      </c>
+      <c r="G118">
+        <v>3.9592800000000001</v>
+      </c>
+      <c r="H118">
+        <v>3.96082</v>
+      </c>
+      <c r="I118">
+        <v>4.1050300000000002</v>
+      </c>
+      <c r="J118">
+        <v>7.3458600000000001</v>
+      </c>
+      <c r="K118">
+        <f>AVERAGE(B118:B121)</f>
+        <v>11.641045</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ref="L118:R118" si="31">AVERAGE(C118:C121)</f>
+        <v>5.264945</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="31"/>
+        <v>4.3852549999999999</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="31"/>
+        <v>4.9912299999999998</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="31"/>
+        <v>5.0269349999999999</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="31"/>
+        <v>5.2345325000000003</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="31"/>
+        <v>6.0513624999999998</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="31"/>
+        <v>6.4133850000000008</v>
+      </c>
+      <c r="S118">
+        <f>AVERAGE(J118:J121)</f>
+        <v>6.4136424999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B119">
+        <v>15.6159</v>
+      </c>
+      <c r="C119">
+        <v>7.2780199999999997</v>
+      </c>
+      <c r="D119">
+        <v>5.7733600000000003</v>
+      </c>
+      <c r="E119">
+        <v>7.38462</v>
+      </c>
+      <c r="F119">
+        <v>7.7389999999999999</v>
+      </c>
+      <c r="G119">
+        <v>8.4274299999999993</v>
+      </c>
+      <c r="H119">
+        <v>10.4636</v>
+      </c>
+      <c r="I119">
+        <v>11.272399999999999</v>
+      </c>
+      <c r="J119">
+        <v>6.1152800000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B120">
+        <v>10.166600000000001</v>
+      </c>
+      <c r="C120">
+        <v>4.3759199999999998</v>
+      </c>
+      <c r="D120">
+        <v>3.9393199999999999</v>
+      </c>
+      <c r="E120">
+        <v>4.2642800000000003</v>
+      </c>
+      <c r="F120">
+        <v>4.0856399999999997</v>
+      </c>
+      <c r="G120">
+        <v>4.1620999999999997</v>
+      </c>
+      <c r="H120">
+        <v>4.7539100000000003</v>
+      </c>
+      <c r="I120">
+        <v>4.9123999999999999</v>
+      </c>
+      <c r="J120">
+        <v>4.0957600000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B121">
+        <v>9.8586799999999997</v>
+      </c>
+      <c r="C121">
+        <v>4.9052899999999999</v>
+      </c>
+      <c r="D121">
+        <v>3.91553</v>
+      </c>
+      <c r="E121">
+        <v>4.3182</v>
+      </c>
+      <c r="F121">
+        <v>4.2570300000000003</v>
+      </c>
+      <c r="G121">
+        <v>4.3893199999999997</v>
+      </c>
+      <c r="H121">
+        <v>5.02712</v>
+      </c>
+      <c r="I121">
+        <v>5.3637100000000002</v>
+      </c>
+      <c r="J121">
+        <v>8.0976700000000008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B122">
+        <v>9.6127500000000001</v>
+      </c>
+      <c r="C122">
+        <v>4.3530899999999999</v>
+      </c>
+      <c r="D122">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="E122">
+        <v>3.9099300000000001</v>
+      </c>
+      <c r="F122">
+        <v>3.82653</v>
+      </c>
+      <c r="G122">
+        <v>4.3453200000000001</v>
+      </c>
+      <c r="H122">
+        <v>4.1977599999999997</v>
+      </c>
+      <c r="I122">
+        <v>3.9099499999999998</v>
+      </c>
+      <c r="J122">
+        <v>4.4695299999999998</v>
+      </c>
+      <c r="K122">
+        <f>AVERAGE(B122:B125)</f>
+        <v>10.912275000000001</v>
+      </c>
+      <c r="L122">
+        <f t="shared" ref="L122:R122" si="32">AVERAGE(C122:C125)</f>
+        <v>5.0410725000000003</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="32"/>
+        <v>4.1228449999999999</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="32"/>
+        <v>4.3860975</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="32"/>
+        <v>4.4763200000000003</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="32"/>
+        <v>4.9215</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="32"/>
+        <v>5.6900475000000004</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="32"/>
+        <v>6.0450625000000002</v>
+      </c>
+      <c r="S122">
+        <f>AVERAGE(J122:J125)</f>
+        <v>6.4055824999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B123">
+        <v>15.0076</v>
+      </c>
+      <c r="C123">
+        <v>6.8282999999999996</v>
+      </c>
+      <c r="D123">
+        <v>5.4904400000000004</v>
+      </c>
+      <c r="E123">
+        <v>6.6354499999999996</v>
+      </c>
+      <c r="F123">
+        <v>6.8731499999999999</v>
+      </c>
+      <c r="G123">
+        <v>7.89839</v>
+      </c>
+      <c r="H123">
+        <v>8.9349500000000006</v>
+      </c>
+      <c r="I123">
+        <v>10.5823</v>
+      </c>
+      <c r="J123">
+        <v>10.6912</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B124">
+        <v>9.7357300000000002</v>
+      </c>
+      <c r="C124">
+        <v>3.9312</v>
+      </c>
+      <c r="D124">
+        <v>3.60324</v>
+      </c>
+      <c r="E124">
+        <v>3.3681800000000002</v>
+      </c>
+      <c r="F124">
+        <v>3.5652499999999998</v>
+      </c>
+      <c r="G124">
+        <v>3.6003500000000002</v>
+      </c>
+      <c r="H124">
+        <v>3.7072799999999999</v>
+      </c>
+      <c r="I124">
+        <v>6.1158200000000003</v>
+      </c>
+      <c r="J124">
+        <v>2.5788600000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="18"/>
+        <v>5.88</v>
+      </c>
+      <c r="B125">
+        <v>9.2930200000000003</v>
+      </c>
+      <c r="C125">
+        <v>5.0517000000000003</v>
+      </c>
+      <c r="D125">
+        <v>3.6507000000000001</v>
+      </c>
+      <c r="E125">
+        <v>3.63083</v>
+      </c>
+      <c r="F125">
+        <v>3.6403500000000002</v>
+      </c>
+      <c r="G125">
+        <v>3.8419400000000001</v>
+      </c>
+      <c r="H125">
+        <v>5.9202000000000004</v>
+      </c>
+      <c r="I125">
+        <v>3.5721799999999999</v>
+      </c>
+      <c r="J125">
+        <v>7.8827400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>-579.19230000000005</v>
+      </c>
+      <c r="C126">
+        <v>61.261279999999999</v>
+      </c>
+      <c r="D126">
+        <v>106.73390000000001</v>
+      </c>
+      <c r="E126">
+        <v>129.90181999999999</v>
+      </c>
+      <c r="F126">
+        <v>120.60955</v>
+      </c>
+      <c r="G126">
+        <v>115.69028</v>
+      </c>
+      <c r="H126">
+        <v>14.163880000000001</v>
+      </c>
+      <c r="I126">
+        <v>-21.93234</v>
+      </c>
+      <c r="J126">
+        <v>-54.162315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <autoFilter ref="K1:K129">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ZIEGLER_NICHOLS_RACEHORSES.xlsx
+++ b/ZIEGLER_NICHOLS_RACEHORSES.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>SP</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>KP=1.4</t>
+  </si>
+  <si>
+    <t>DIFF</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="116"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1200,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88884352"/>
-        <c:axId val="88885888"/>
+        <c:axId val="86665856"/>
+        <c:axId val="86684800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88884352"/>
+        <c:axId val="86665856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88885888"/>
+        <c:crossAx val="86684800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88885888"/>
+        <c:axId val="86684800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1276,7 +1278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88884352"/>
+        <c:crossAx val="86665856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,20 +1331,2903 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$A$2:$A$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$C$2:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>7.6174200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2876500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6135099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3569500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7403000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6994899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6697699999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6686899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0363699999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3907400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6624699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4931099999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6969700000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7632500000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4785000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7291100000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3644699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5391300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2960799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7056800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4238900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.69034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2337199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8268599999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6676399999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.85792</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2420600000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5768199999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7187200000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.33582</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1711</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.49247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6465899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4075300000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2943899999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4659399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.6896000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3852200000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.36172</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8693900000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7514399999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7790800000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3179400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8702800000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.7650199999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5702800000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6581099999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0288199999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5752600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.17164</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5657199999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2184400000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6407100000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0275699999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5266299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9114100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.5643700000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1044600000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.56759</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0504600000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.4000199999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6966299999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1112299999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7096499999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5863800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8910999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.4749600000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.02813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.6129199999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9146799999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.2134900000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9009499999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.5709299999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5815599999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3257899999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.6615399999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.5292399999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.53315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3757200000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7564700000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.5296799999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6315600000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4474299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0411799999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.6542399999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7099000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.5067700000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.9813400000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.4373800000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7674599999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.2544700000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.7981999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.6020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.6810999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6547700000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0810899999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.8359500000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8695700000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2659599999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.8170700000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.0530999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.6365499999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.2416</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.6750600000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.12608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.3900399999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0354000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.5553699999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.3334900000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.3824800000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.1543799999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.6492399999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.4068300000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.3453400000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0589000000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.5005499999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.2780199999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.3759199999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.9052899999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.3530899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.8282999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.9312</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0517000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$D$2:$D$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>7.2679299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4189100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9783999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6414999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5002899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6173799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2669699999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3575499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8742799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3139200000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2123200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0889199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5900100000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1334200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7598500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5151300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5396700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0900600000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.68133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4540100000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6984599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8942199999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7518200000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.56379</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8177899999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6005700000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5267299999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2885299999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.58779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5066300000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2638699999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3091100000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8322099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6252800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5041000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.47532</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7970499999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6775700000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.4607999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7904299999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8606999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3517700000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4728700000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9001900000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7932699999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6712899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.54087</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.14384</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8442100000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.9030500000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5879599999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0140200000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0252100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7612100000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1315499999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8816800000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.6906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.5189199999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7803599999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.5858100000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.3815900000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.4129899999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8189200000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.6740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.3984399999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.5237600000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0232900000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8122699999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3473300000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.4459</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9929399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9671500000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.34483</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7628300000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4440900000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.8963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3517400000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.7610599999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.7719800000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2617500000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3905900000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.7584200000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.6394900000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1359399999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.3940700000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.6544699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1802400000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.6837999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.17469</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.55687</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4819100000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.0339700000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.2784399999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.4433199999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.3122800000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.0366400000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.1268900000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.2854999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1577700000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.9224699999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.9678</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.9910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9846200000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.96434</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.9733100000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.1991899999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0916899999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.0902900000000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.8774600000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.0053999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.9128099999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.7733600000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.9393199999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.91553</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.7469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.4904400000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.60324</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.6507000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$E$2:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>6.5625299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4073099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9773900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5773900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3377499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4607900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9028800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5687199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3096800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4605499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.81128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5252699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1678100000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3905500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9003299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6604700000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1292799999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6022800000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0280899999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6331100000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2277899999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6211700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1914999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7697500000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4454700000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.80809</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1975100000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4894600000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1269900000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6303799999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.67123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.06311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8972799999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2729200000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7445300000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3107600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0241600000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3524700000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.89968</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4394799999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.11036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5054699999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.88883</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4331100000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1812199999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6535200000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9419499999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5812600000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.65747</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8093599999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9913699999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3236600000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7068099999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0905699999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7037100000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.3776900000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6537699999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2594599999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0632599999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.47112</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.9227600000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.92788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.4220899999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.21983</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4466299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.85642</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.46957</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.20221</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.4897200000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9634100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5870699999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2377099999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4409599999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.7772700000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.4201899999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.02529</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.21408</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.7823600000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3585700000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0447699999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.9504599999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8049200000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.45329</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0866600000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2245299999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.9187599999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5468500000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.2706600000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.4440099999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9811299999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4554400000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0576800000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.4189400000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.90855</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.6801300000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.3498999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.9896099999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.0083900000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.7198599999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.4649400000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.2143300000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0812999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.4054099999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1675500000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.1143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.8489200000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2481200000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9709400000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.2277300000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.9781900000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4410600000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.3689299999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.6798299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.55314</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.3979600000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.9978199999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.38462</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.2642800000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.3182</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.9099300000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.6354499999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.3681800000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.63083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$F$2:$F$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>6.5926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1847899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1080399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7567599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3612099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1348200000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.59232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3848799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5928500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0028199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5364100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1837</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5195100000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5315399999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1661299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5014700000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0915999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5191800000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2604199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5805499999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2355799999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6473800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4642999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8519699999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1657500000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5142800000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0635399999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6102999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7338900000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0240299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8531499999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3727999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7444899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3175600000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9712700000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.38767</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9158900000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4304600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1234099999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.60616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.93946</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5022700000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.51091</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0704099999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6316600000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.26302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.58432</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0841799999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6785600000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.2678399999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6375700000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1019600000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5752600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.2664600000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9455499999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.6544699999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8474000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.4963699999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1020899999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1510600000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.5729300000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.15503</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.6778500000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0797499999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.5248900000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2424099999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.6157399999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.1409599999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.6987100000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3373900000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6218700000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0009100000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6567100000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.03918</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.3681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9952100000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3500800000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1340700000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.4546200000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.1492000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6738600000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.42178</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5327200000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.2300199999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.6303299999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4808300000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.8371899999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2301299999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.65665</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1617499999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.8485199999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2368800000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.7367299999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4260599999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.2037300000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.2836999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.6482000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.2294299999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.3598699999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.1753200000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.4081000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.0740999999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.41709</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.0663600000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.4089900000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9948800000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.5115499999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.0450100000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.6184599999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.31799</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.8868900000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.0617799999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.3769200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.0260699999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.0856399999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.2570300000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.82653</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.8731499999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.5652499999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.6403500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=1.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$G$2:$G$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>6.6244100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0431699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1648800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.70547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1323400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5027100000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1596399999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0545499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.36564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9916200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6411100000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.03613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4239899999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.03566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7045500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.03078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.43696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0966800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3015600000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5912800000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.28376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9391499999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.26586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4417499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0288399999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9738300000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0572400000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0729699999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8036400000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8112899999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2802199999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7920099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9374700000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9748100000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3435800000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9978699999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.9365500000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9895399999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4037800000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9388399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.7415000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.58019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.1491699999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9649200000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.1503699999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5395200000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1911199999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.8527300000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1554599999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.4734600000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.2764499999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9218299999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2923999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7786499999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.3225699999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1085000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1735499999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3071099999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0414500000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9314400000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0787300000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.2912800000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9825699999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.7245999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2171200000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5854499999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2591200000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.9677300000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0877999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.4376100000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.8864899999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.0587099999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.1211099999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3110099999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9678200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.52447</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0559500000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5808299999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.6160300000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.1505900000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3688399999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.8621600000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.22722</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5142600000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.03965</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2441000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.73719</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4223299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.51248</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.3312099999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.6156699999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.1353400000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.6166900000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.2707499999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.36897</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1306500000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.9533100000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.1476800000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2766000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.96401</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.5113800000000008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.1408399999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.5069100000000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.2168299999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.4390499999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.0800999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.35677</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.9592800000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.4274299999999993</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.1620999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.3893199999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.3453200000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.89839</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.6003500000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.8419400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>parsed_pid_constants.csv!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP=1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parsed_pid_constants.csv!$H$2:$H$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>6.5721800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0985100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9472700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.46265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0716200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5760299999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2389599999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0335799999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0621600000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4352099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1901900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0663200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1313300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4887599999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4260299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6559400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0453799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8008500000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2643399999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0733899999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2227199999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6279699999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3241500000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.99275</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2941399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6476600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3676500000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7885200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.85623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0448900000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0604500000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6256500000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6801499999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.9826599999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1137899999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8488600000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8228900000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7751199999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1187699999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.0323099999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2843699999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2229299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8197799999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.15557</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.9702199999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3345200000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7274599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.07517</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.1779600000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.4191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7472099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0646199999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7145600000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.3733899999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7627100000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1474599999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6994199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.6281499999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8310899999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.3570399999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.3933099999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3092499999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.6919500000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.1800699999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5733899999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2504299999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8291199999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0050100000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.6626600000000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2763499999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9374500000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2238899999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3042400000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1477500000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.8834099999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.92455</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7155500000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.2478999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.6846199999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.99661</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.3870100000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.2046000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.8349700000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.1115000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4714600000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3262700000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.8166900000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3439199999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.0749499999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2669199999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.9456800000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0303000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.0528700000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3996500000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4884000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.6534099999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.4949899999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.7534599999999996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.1353799999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.4086999999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.70404</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.1870900000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1506400000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.6234400000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.3868200000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.5025399999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9142100000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.2520800000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.7235100000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.9954799999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.9616100000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.0842900000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.1886299999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.96082</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.4636</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7539100000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.02712</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.1977599999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.9349500000000006</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.7072799999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.9202000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="36193408"/>
+        <c:axId val="36194944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="36193408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36194944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36194944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36193408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99869</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>796636</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>221097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1004455</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1356,6 +4241,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1965,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8732,6 +11647,9 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
       <c r="B126">
         <v>-579.19230000000005</v>
       </c>
